--- a/data/LR_Actual_Pred_XH.xlsx
+++ b/data/LR_Actual_Pred_XH.xlsx
@@ -500,37 +500,37 @@
         <v>6.4</v>
       </c>
       <c r="B2" t="n">
-        <v>5.67400411012096</v>
+        <v>5.826476431204711</v>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>6.997183852624533</v>
+        <v>6.631487689334654</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>6.030669634821294</v>
+        <v>5.867849246634925</v>
       </c>
       <c r="G2" t="n">
         <v>7.25</v>
       </c>
       <c r="H2" t="n">
-        <v>7.615106021600368</v>
+        <v>7.104461571799629</v>
       </c>
       <c r="I2" t="n">
         <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>8.650221889181015</v>
+        <v>7.810521021029951</v>
       </c>
       <c r="K2" t="n">
         <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>3.927973004596016</v>
+        <v>4.470716438032554</v>
       </c>
     </row>
     <row r="3">
@@ -538,37 +538,37 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>7.050781358546197</v>
+        <v>7.25000063513594</v>
       </c>
       <c r="C3" t="n">
         <v>8.5</v>
       </c>
       <c r="D3" t="n">
-        <v>8.151326852842589</v>
+        <v>8.015429488096935</v>
       </c>
       <c r="E3" t="n">
         <v>8.25</v>
       </c>
       <c r="F3" t="n">
-        <v>7.399027323347406</v>
+        <v>6.960517069122265</v>
       </c>
       <c r="G3" t="n">
         <v>7.5</v>
       </c>
       <c r="H3" t="n">
-        <v>8.192451209063972</v>
+        <v>7.66416255296839</v>
       </c>
       <c r="I3" t="n">
         <v>8.75</v>
       </c>
       <c r="J3" t="n">
-        <v>9.182473738552764</v>
+        <v>8.569602402923181</v>
       </c>
       <c r="K3" t="n">
         <v>6.8</v>
       </c>
       <c r="L3" t="n">
-        <v>7.014688993821165</v>
+        <v>7.236838338698384</v>
       </c>
     </row>
     <row r="4">
@@ -576,37 +576,37 @@
         <v>6.6</v>
       </c>
       <c r="B4" t="n">
-        <v>6.980777463712386</v>
+        <v>7.199727775878672</v>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>7.966906583041382</v>
+        <v>7.743642693835198</v>
       </c>
       <c r="E4" t="n">
         <v>6.25</v>
       </c>
       <c r="F4" t="n">
-        <v>6.75916180973276</v>
+        <v>6.477699530618464</v>
       </c>
       <c r="G4" t="n">
         <v>7.25</v>
       </c>
       <c r="H4" t="n">
-        <v>8.129342448438473</v>
+        <v>7.605954901736164</v>
       </c>
       <c r="I4" t="n">
         <v>8.5</v>
       </c>
       <c r="J4" t="n">
-        <v>9.312708422440938</v>
+        <v>8.792354136274259</v>
       </c>
       <c r="K4" t="n">
         <v>5.4</v>
       </c>
       <c r="L4" t="n">
-        <v>5.404760142195638</v>
+        <v>5.694673529449917</v>
       </c>
     </row>
     <row r="5">
@@ -614,37 +614,37 @@
         <v>3.8</v>
       </c>
       <c r="B5" t="n">
-        <v>5.197407112297979</v>
+        <v>5.257116054373363</v>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>6.653716421373402</v>
+        <v>6.172032770746114</v>
       </c>
       <c r="E5" t="n">
         <v>4.75</v>
       </c>
       <c r="F5" t="n">
-        <v>3.174380327019545</v>
+        <v>3.370406370319614</v>
       </c>
       <c r="G5" t="n">
         <v>7.5</v>
       </c>
       <c r="H5" t="n">
-        <v>6.737720097076163</v>
+        <v>6.097237641056987</v>
       </c>
       <c r="I5" t="n">
         <v>7.75</v>
       </c>
       <c r="J5" t="n">
-        <v>8.652740007164399</v>
+        <v>7.840252944468319</v>
       </c>
       <c r="K5" t="n">
         <v>6.6</v>
       </c>
       <c r="L5" t="n">
-        <v>5.513000818326162</v>
+        <v>5.909901819017763</v>
       </c>
     </row>
     <row r="6">
@@ -652,37 +652,37 @@
         <v>8.6</v>
       </c>
       <c r="B6" t="n">
-        <v>6.827680378602397</v>
+        <v>7.05293361378622</v>
       </c>
       <c r="C6" t="n">
         <v>8.25</v>
       </c>
       <c r="D6" t="n">
-        <v>7.764349463277112</v>
+        <v>7.577871138239734</v>
       </c>
       <c r="E6" t="n">
         <v>8.75</v>
       </c>
       <c r="F6" t="n">
-        <v>8.381763528759604</v>
+        <v>7.905453072438123</v>
       </c>
       <c r="G6" t="n">
         <v>8.25</v>
       </c>
       <c r="H6" t="n">
-        <v>8.599266122362728</v>
+        <v>8.198642716288221</v>
       </c>
       <c r="I6" t="n">
         <v>9.5</v>
       </c>
       <c r="J6" t="n">
-        <v>9.431345718991139</v>
+        <v>9.008527739430125</v>
       </c>
       <c r="K6" t="n">
         <v>5.6</v>
       </c>
       <c r="L6" t="n">
-        <v>5.261211430183618</v>
+        <v>5.630056006542885</v>
       </c>
     </row>
     <row r="7">
@@ -690,37 +690,37 @@
         <v>5.8</v>
       </c>
       <c r="B7" t="n">
-        <v>5.911031824291259</v>
+        <v>6.038709168373834</v>
       </c>
       <c r="C7" t="n">
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>7.29136629096659</v>
+        <v>6.961591914599198</v>
       </c>
       <c r="E7" t="n">
         <v>7.5</v>
       </c>
       <c r="F7" t="n">
-        <v>5.271745193877552</v>
+        <v>5.164812718287729</v>
       </c>
       <c r="G7" t="n">
         <v>8.5</v>
       </c>
       <c r="H7" t="n">
-        <v>7.489221571594255</v>
+        <v>6.920355433986672</v>
       </c>
       <c r="I7" t="n">
         <v>8.75</v>
       </c>
       <c r="J7" t="n">
-        <v>8.790659836243464</v>
+        <v>8.00028624145083</v>
       </c>
       <c r="K7" t="n">
         <v>4.4</v>
       </c>
       <c r="L7" t="n">
-        <v>3.95806914008371</v>
+        <v>4.439778952693352</v>
       </c>
     </row>
     <row r="8">
@@ -728,37 +728,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.849227632222625</v>
+        <v>7.011740980787058</v>
       </c>
       <c r="C8" t="n">
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>8.194949665314235</v>
+        <v>7.941362880385229</v>
       </c>
       <c r="E8" t="n">
         <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>7.362163131000131</v>
+        <v>6.984117888333444</v>
       </c>
       <c r="G8" t="n">
         <v>7.75</v>
       </c>
       <c r="H8" t="n">
-        <v>8.355660062430804</v>
+        <v>7.901889596218773</v>
       </c>
       <c r="I8" t="n">
         <v>8.5</v>
       </c>
       <c r="J8" t="n">
-        <v>9.726566340799502</v>
+        <v>9.369281854341491</v>
       </c>
       <c r="K8" t="n">
         <v>6</v>
       </c>
       <c r="L8" t="n">
-        <v>6.951760818447227</v>
+        <v>7.178420740508303</v>
       </c>
     </row>
     <row r="9">
@@ -766,37 +766,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.628350137709428</v>
+        <v>6.876980647645228</v>
       </c>
       <c r="C9" t="n">
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>8.109571915489557</v>
+        <v>7.930801933120732</v>
       </c>
       <c r="E9" t="n">
         <v>8.5</v>
       </c>
       <c r="F9" t="n">
-        <v>7.868600326939274</v>
+        <v>7.262655614306791</v>
       </c>
       <c r="G9" t="n">
         <v>7</v>
       </c>
       <c r="H9" t="n">
-        <v>8.015874933565385</v>
+        <v>7.498056221131673</v>
       </c>
       <c r="I9" t="n">
         <v>8.5</v>
       </c>
       <c r="J9" t="n">
-        <v>9.324362173089364</v>
+        <v>8.799618997899451</v>
       </c>
       <c r="K9" t="n">
         <v>6</v>
       </c>
       <c r="L9" t="n">
-        <v>5.482990205228015</v>
+        <v>5.877295237962203</v>
       </c>
     </row>
     <row r="10">
@@ -804,37 +804,37 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>6.906852945597318</v>
+        <v>7.106705447592385</v>
       </c>
       <c r="C10" t="n">
         <v>6.75</v>
       </c>
       <c r="D10" t="n">
-        <v>8.19707009465087</v>
+        <v>7.977039411426218</v>
       </c>
       <c r="E10" t="n">
         <v>8.5</v>
       </c>
       <c r="F10" t="n">
-        <v>7.751749630833573</v>
+        <v>7.290655288768701</v>
       </c>
       <c r="G10" t="n">
         <v>7.5</v>
       </c>
       <c r="H10" t="n">
-        <v>8.205330814466993</v>
+        <v>7.734152335741825</v>
       </c>
       <c r="I10" t="n">
         <v>9</v>
       </c>
       <c r="J10" t="n">
-        <v>9.405436038432159</v>
+        <v>8.891224265149765</v>
       </c>
       <c r="K10" t="n">
         <v>4.4</v>
       </c>
       <c r="L10" t="n">
-        <v>5.752070076819201</v>
+        <v>6.057192296852733</v>
       </c>
     </row>
     <row r="11">
@@ -842,37 +842,37 @@
         <v>5.8</v>
       </c>
       <c r="B11" t="n">
-        <v>6.216696699503321</v>
+        <v>6.42500785637673</v>
       </c>
       <c r="C11" t="n">
         <v>8.5</v>
       </c>
       <c r="D11" t="n">
-        <v>7.246733544176339</v>
+        <v>6.933826723991398</v>
       </c>
       <c r="E11" t="n">
         <v>6.75</v>
       </c>
       <c r="F11" t="n">
-        <v>6.531560407212071</v>
+        <v>6.243149703011685</v>
       </c>
       <c r="G11" t="n">
         <v>8.25</v>
       </c>
       <c r="H11" t="n">
-        <v>7.593890661460954</v>
+        <v>7.044139602800609</v>
       </c>
       <c r="I11" t="n">
         <v>9.25</v>
       </c>
       <c r="J11" t="n">
-        <v>9.169730742254075</v>
+        <v>8.605687258006295</v>
       </c>
       <c r="K11" t="n">
         <v>6</v>
       </c>
       <c r="L11" t="n">
-        <v>4.675556803991257</v>
+        <v>5.170465181677637</v>
       </c>
     </row>
     <row r="12">
@@ -880,37 +880,37 @@
         <v>7.4</v>
       </c>
       <c r="B12" t="n">
-        <v>6.295049578835647</v>
+        <v>6.464915801981113</v>
       </c>
       <c r="C12" t="n">
         <v>7.25</v>
       </c>
       <c r="D12" t="n">
-        <v>7.661185983230898</v>
+        <v>7.398256499542558</v>
       </c>
       <c r="E12" t="n">
         <v>6</v>
       </c>
       <c r="F12" t="n">
-        <v>5.765238685998391</v>
+        <v>5.572397764343471</v>
       </c>
       <c r="G12" t="n">
         <v>8</v>
       </c>
       <c r="H12" t="n">
-        <v>7.82607573023979</v>
+        <v>7.273221670502192</v>
       </c>
       <c r="I12" t="n">
         <v>9.75</v>
       </c>
       <c r="J12" t="n">
-        <v>9.212240601055433</v>
+        <v>8.683523753919943</v>
       </c>
       <c r="K12" t="n">
         <v>5.2</v>
       </c>
       <c r="L12" t="n">
-        <v>5.278795056256642</v>
+        <v>5.610162326490954</v>
       </c>
     </row>
     <row r="13">
@@ -918,37 +918,37 @@
         <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>4.663566011324792</v>
+        <v>4.621241231016165</v>
       </c>
       <c r="C13" t="n">
         <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>6.719087420285437</v>
+        <v>6.294357130432428</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>3.414635372523166</v>
+        <v>3.642493407329496</v>
       </c>
       <c r="G13" t="n">
         <v>6.25</v>
       </c>
       <c r="H13" t="n">
-        <v>6.138625456172872</v>
+        <v>5.324578492747247</v>
       </c>
       <c r="I13" t="n">
         <v>8.5</v>
       </c>
       <c r="J13" t="n">
-        <v>8.679367974886611</v>
+        <v>7.892826654732217</v>
       </c>
       <c r="K13" t="n">
         <v>1.6</v>
       </c>
       <c r="L13" t="n">
-        <v>2.538761420248979</v>
+        <v>3.115325415882769</v>
       </c>
     </row>
     <row r="14">
@@ -956,37 +956,37 @@
         <v>6.2</v>
       </c>
       <c r="B14" t="n">
-        <v>7.017166104498765</v>
+        <v>7.223810203230567</v>
       </c>
       <c r="C14" t="n">
         <v>7.5</v>
       </c>
       <c r="D14" t="n">
-        <v>7.994690475761941</v>
+        <v>7.753565058996515</v>
       </c>
       <c r="E14" t="n">
         <v>6.25</v>
       </c>
       <c r="F14" t="n">
-        <v>7.773605247065864</v>
+        <v>7.329288593690588</v>
       </c>
       <c r="G14" t="n">
         <v>7.5</v>
       </c>
       <c r="H14" t="n">
-        <v>8.24309041974437</v>
+        <v>7.778860322944139</v>
       </c>
       <c r="I14" t="n">
         <v>8.25</v>
       </c>
       <c r="J14" t="n">
-        <v>9.260113334407695</v>
+        <v>8.665653629625254</v>
       </c>
       <c r="K14" t="n">
         <v>5.6</v>
       </c>
       <c r="L14" t="n">
-        <v>5.973791219816056</v>
+        <v>6.239047580376152</v>
       </c>
     </row>
     <row r="15">
@@ -994,37 +994,37 @@
         <v>8</v>
       </c>
       <c r="B15" t="n">
-        <v>7.641678703190602</v>
+        <v>7.943288717603523</v>
       </c>
       <c r="C15" t="n">
         <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>8.352935128861322</v>
+        <v>8.232362151701246</v>
       </c>
       <c r="E15" t="n">
         <v>5.5</v>
       </c>
       <c r="F15" t="n">
-        <v>7.410506133706493</v>
+        <v>6.972880159764806</v>
       </c>
       <c r="G15" t="n">
         <v>7.5</v>
       </c>
       <c r="H15" t="n">
-        <v>8.302723261576196</v>
+        <v>7.795614278833371</v>
       </c>
       <c r="I15" t="n">
         <v>9</v>
       </c>
       <c r="J15" t="n">
-        <v>9.448205187626478</v>
+        <v>8.996025941107309</v>
       </c>
       <c r="K15" t="n">
         <v>7.4</v>
       </c>
       <c r="L15" t="n">
-        <v>6.145705163534013</v>
+        <v>6.376673256654676</v>
       </c>
     </row>
     <row r="16">
@@ -1032,37 +1032,37 @@
         <v>5.8</v>
       </c>
       <c r="B16" t="n">
-        <v>5.524239499995129</v>
+        <v>5.588822780080777</v>
       </c>
       <c r="C16" t="n">
         <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>7.229443439803087</v>
+        <v>6.936165247455289</v>
       </c>
       <c r="E16" t="n">
         <v>7.5</v>
       </c>
       <c r="F16" t="n">
-        <v>6.78067104086779</v>
+        <v>6.53692669198705</v>
       </c>
       <c r="G16" t="n">
         <v>9.25</v>
       </c>
       <c r="H16" t="n">
-        <v>7.976040131004659</v>
+        <v>7.461425126525173</v>
       </c>
       <c r="I16" t="n">
         <v>9.75</v>
       </c>
       <c r="J16" t="n">
-        <v>9.31099113633565</v>
+        <v>8.859376993516712</v>
       </c>
       <c r="K16" t="n">
         <v>6.6</v>
       </c>
       <c r="L16" t="n">
-        <v>5.438799956597998</v>
+        <v>5.843862009451593</v>
       </c>
     </row>
     <row r="17">
@@ -1070,37 +1070,37 @@
         <v>7.4</v>
       </c>
       <c r="B17" t="n">
-        <v>5.899362110374947</v>
+        <v>5.993433895161989</v>
       </c>
       <c r="C17" t="n">
         <v>5.75</v>
       </c>
       <c r="D17" t="n">
-        <v>6.790887034188147</v>
+        <v>6.384733414518942</v>
       </c>
       <c r="E17" t="n">
         <v>4.25</v>
       </c>
       <c r="F17" t="n">
-        <v>4.372416478410421</v>
+        <v>4.411344318983419</v>
       </c>
       <c r="G17" t="n">
         <v>7.75</v>
       </c>
       <c r="H17" t="n">
-        <v>7.447366435997928</v>
+        <v>6.888319298333617</v>
       </c>
       <c r="I17" t="n">
         <v>7.75</v>
       </c>
       <c r="J17" t="n">
-        <v>8.910348472596667</v>
+        <v>8.207775038612159</v>
       </c>
       <c r="K17" t="n">
         <v>6</v>
       </c>
       <c r="L17" t="n">
-        <v>4.544200993540152</v>
+        <v>5.035394597352488</v>
       </c>
     </row>
     <row r="18">
@@ -1108,37 +1108,37 @@
         <v>3.6</v>
       </c>
       <c r="B18" t="n">
-        <v>5.513710949077129</v>
+        <v>5.524758047809573</v>
       </c>
       <c r="C18" t="n">
         <v>7.5</v>
       </c>
       <c r="D18" t="n">
-        <v>7.113282741676702</v>
+        <v>6.732426266605328</v>
       </c>
       <c r="E18" t="n">
         <v>5.5</v>
       </c>
       <c r="F18" t="n">
-        <v>6.247938680212085</v>
+        <v>5.993954452783976</v>
       </c>
       <c r="G18" t="n">
         <v>7.5</v>
       </c>
       <c r="H18" t="n">
-        <v>7.757633479581088</v>
+        <v>7.1214731673177</v>
       </c>
       <c r="I18" t="n">
         <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>8.992212045751927</v>
+        <v>8.313675272295164</v>
       </c>
       <c r="K18" t="n">
         <v>2.8</v>
       </c>
       <c r="L18" t="n">
-        <v>3.640504916598358</v>
+        <v>4.058984441421828</v>
       </c>
     </row>
     <row r="19">
@@ -1146,37 +1146,37 @@
         <v>7.8</v>
       </c>
       <c r="B19" t="n">
-        <v>5.76057293650122</v>
+        <v>5.891593664372231</v>
       </c>
       <c r="C19" t="n">
         <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>6.998360182742154</v>
+        <v>6.639350799926333</v>
       </c>
       <c r="E19" t="n">
         <v>3.25</v>
       </c>
       <c r="F19" t="n">
-        <v>5.271377552379677</v>
+        <v>5.131259882361736</v>
       </c>
       <c r="G19" t="n">
         <v>6</v>
       </c>
       <c r="H19" t="n">
-        <v>7.557380475212582</v>
+        <v>7.001616560325942</v>
       </c>
       <c r="I19" t="n">
         <v>7.5</v>
       </c>
       <c r="J19" t="n">
-        <v>8.503231119669909</v>
+        <v>7.576020563867409</v>
       </c>
       <c r="K19" t="n">
         <v>3.6</v>
       </c>
       <c r="L19" t="n">
-        <v>4.139865247706743</v>
+        <v>4.654502859549354</v>
       </c>
     </row>
     <row r="20">
@@ -1184,37 +1184,37 @@
         <v>7.2</v>
       </c>
       <c r="B20" t="n">
-        <v>6.099429650938716</v>
+        <v>6.288176170356166</v>
       </c>
       <c r="C20" t="n">
         <v>6.5</v>
       </c>
       <c r="D20" t="n">
-        <v>7.738258386594192</v>
+        <v>7.488604990019851</v>
       </c>
       <c r="E20" t="n">
         <v>6.75</v>
       </c>
       <c r="F20" t="n">
-        <v>6.893415847854739</v>
+        <v>6.541651294468563</v>
       </c>
       <c r="G20" t="n">
         <v>5.5</v>
       </c>
       <c r="H20" t="n">
-        <v>7.809974725544233</v>
+        <v>7.302978109159568</v>
       </c>
       <c r="I20" t="n">
         <v>8.75</v>
       </c>
       <c r="J20" t="n">
-        <v>8.755715211856886</v>
+        <v>7.94436936829657</v>
       </c>
       <c r="K20" t="n">
         <v>5.2</v>
       </c>
       <c r="L20" t="n">
-        <v>4.301386481519025</v>
+        <v>4.790870961898217</v>
       </c>
     </row>
     <row r="21">
@@ -1222,37 +1222,37 @@
         <v>7.8</v>
       </c>
       <c r="B21" t="n">
-        <v>6.8042442612644</v>
+        <v>7.053645890764275</v>
       </c>
       <c r="C21" t="n">
         <v>6.25</v>
       </c>
       <c r="D21" t="n">
-        <v>7.339539568125069</v>
+        <v>6.970473895686214</v>
       </c>
       <c r="E21" t="n">
         <v>5.5</v>
       </c>
       <c r="F21" t="n">
-        <v>5.695699331917599</v>
+        <v>5.540141798793908</v>
       </c>
       <c r="G21" t="n">
         <v>7</v>
       </c>
       <c r="H21" t="n">
-        <v>8.043005928601099</v>
+        <v>7.571121232512715</v>
       </c>
       <c r="I21" t="n">
         <v>9</v>
       </c>
       <c r="J21" t="n">
-        <v>9.295842153157249</v>
+        <v>8.748865711996839</v>
       </c>
       <c r="K21" t="n">
         <v>5.8</v>
       </c>
       <c r="L21" t="n">
-        <v>5.435746539048318</v>
+        <v>5.783886674842543</v>
       </c>
     </row>
     <row r="22">
@@ -1260,37 +1260,37 @@
         <v>6.2</v>
       </c>
       <c r="B22" t="n">
-        <v>6.146133091840333</v>
+        <v>6.325542135108453</v>
       </c>
       <c r="C22" t="n">
         <v>7</v>
       </c>
       <c r="D22" t="n">
-        <v>6.976876596495414</v>
+        <v>6.543773458130021</v>
       </c>
       <c r="E22" t="n">
         <v>3.25</v>
       </c>
       <c r="F22" t="n">
-        <v>3.384580916944309</v>
+        <v>3.470529912439053</v>
       </c>
       <c r="G22" t="n">
         <v>6.5</v>
       </c>
       <c r="H22" t="n">
-        <v>6.907004030349204</v>
+        <v>6.229092217852712</v>
       </c>
       <c r="I22" t="n">
         <v>7.25</v>
       </c>
       <c r="J22" t="n">
-        <v>8.797049946674182</v>
+        <v>8.010009771929486</v>
       </c>
       <c r="K22" t="n">
         <v>5.8</v>
       </c>
       <c r="L22" t="n">
-        <v>4.867144270203775</v>
+        <v>5.315670560432277</v>
       </c>
     </row>
     <row r="23">
@@ -1298,37 +1298,37 @@
         <v>6.4</v>
       </c>
       <c r="B23" t="n">
-        <v>6.300692055675817</v>
+        <v>6.437361289332124</v>
       </c>
       <c r="C23" t="n">
         <v>7</v>
       </c>
       <c r="D23" t="n">
-        <v>7.819517781173032</v>
+        <v>7.525971920431818</v>
       </c>
       <c r="E23" t="n">
         <v>4.5</v>
       </c>
       <c r="F23" t="n">
-        <v>4.746142821991075</v>
+        <v>4.682745219205605</v>
       </c>
       <c r="G23" t="n">
         <v>5.25</v>
       </c>
       <c r="H23" t="n">
-        <v>7.231264389740953</v>
+        <v>6.615301061917774</v>
       </c>
       <c r="I23" t="n">
         <v>9</v>
       </c>
       <c r="J23" t="n">
-        <v>9.202288868690269</v>
+        <v>8.601127903879872</v>
       </c>
       <c r="K23" t="n">
         <v>5.4</v>
       </c>
       <c r="L23" t="n">
-        <v>5.779286108212495</v>
+        <v>6.099919354953492</v>
       </c>
     </row>
     <row r="24">
@@ -1336,37 +1336,37 @@
         <v>5</v>
       </c>
       <c r="B24" t="n">
-        <v>6.840258800811735</v>
+        <v>7.068435990616764</v>
       </c>
       <c r="C24" t="n">
         <v>5.75</v>
       </c>
       <c r="D24" t="n">
-        <v>7.925845774102743</v>
+        <v>7.699014928110951</v>
       </c>
       <c r="E24" t="n">
         <v>3.75</v>
       </c>
       <c r="F24" t="n">
-        <v>7.694311247867938</v>
+        <v>7.161760021548513</v>
       </c>
       <c r="G24" t="n">
         <v>6.5</v>
       </c>
       <c r="H24" t="n">
-        <v>8.398892598533033</v>
+        <v>7.929832892916645</v>
       </c>
       <c r="I24" t="n">
         <v>7.5</v>
       </c>
       <c r="J24" t="n">
-        <v>9.487833924167369</v>
+        <v>9.018379509514425</v>
       </c>
       <c r="K24" t="n">
         <v>3.4</v>
       </c>
       <c r="L24" t="n">
-        <v>6.516436443149121</v>
+        <v>6.816739762352642</v>
       </c>
     </row>
     <row r="25">
@@ -1374,37 +1374,37 @@
         <v>6.2</v>
       </c>
       <c r="B25" t="n">
-        <v>5.635830387666321</v>
+        <v>5.728193254049969</v>
       </c>
       <c r="C25" t="n">
         <v>7.75</v>
       </c>
       <c r="D25" t="n">
-        <v>7.776077035016948</v>
+        <v>7.518269343591619</v>
       </c>
       <c r="E25" t="n">
         <v>6.25</v>
       </c>
       <c r="F25" t="n">
-        <v>7.125849865701678</v>
+        <v>6.751723386156407</v>
       </c>
       <c r="G25" t="n">
         <v>5.75</v>
       </c>
       <c r="H25" t="n">
-        <v>7.710866766246114</v>
+        <v>7.153545022465297</v>
       </c>
       <c r="I25" t="n">
         <v>8.5</v>
       </c>
       <c r="J25" t="n">
-        <v>8.974417177874104</v>
+        <v>8.2792578591093</v>
       </c>
       <c r="K25" t="n">
         <v>4.6</v>
       </c>
       <c r="L25" t="n">
-        <v>4.803430381448214</v>
+        <v>5.247256827602206</v>
       </c>
     </row>
     <row r="26">
@@ -1412,37 +1412,37 @@
         <v>8.4</v>
       </c>
       <c r="B26" t="n">
-        <v>6.898040821956049</v>
+        <v>7.139552384508603</v>
       </c>
       <c r="C26" t="n">
         <v>7.25</v>
       </c>
       <c r="D26" t="n">
-        <v>8.017541673642254</v>
+        <v>7.844790640887948</v>
       </c>
       <c r="E26" t="n">
         <v>6</v>
       </c>
       <c r="F26" t="n">
-        <v>7.711111462102236</v>
+        <v>7.310665580911193</v>
       </c>
       <c r="G26" t="n">
         <v>8.25</v>
       </c>
       <c r="H26" t="n">
-        <v>8.275905046487997</v>
+        <v>7.832995254600904</v>
       </c>
       <c r="I26" t="n">
         <v>9.25</v>
       </c>
       <c r="J26" t="n">
-        <v>9.357127009075278</v>
+        <v>8.8561978305613</v>
       </c>
       <c r="K26" t="n">
         <v>4.8</v>
       </c>
       <c r="L26" t="n">
-        <v>5.260406681884531</v>
+        <v>5.639337818494676</v>
       </c>
     </row>
     <row r="27">
@@ -1450,37 +1450,37 @@
         <v>7.8</v>
       </c>
       <c r="B27" t="n">
-        <v>7.790091553577983</v>
+        <v>8.130437688858787</v>
       </c>
       <c r="C27" t="n">
         <v>7</v>
       </c>
       <c r="D27" t="n">
-        <v>8.379929357110193</v>
+        <v>8.278757019258951</v>
       </c>
       <c r="E27" t="n">
         <v>7.5</v>
       </c>
       <c r="F27" t="n">
-        <v>6.939441937193526</v>
+        <v>6.593737292137764</v>
       </c>
       <c r="G27" t="n">
         <v>7</v>
       </c>
       <c r="H27" t="n">
-        <v>8.169474887131878</v>
+        <v>7.639557400610945</v>
       </c>
       <c r="I27" t="n">
         <v>8</v>
       </c>
       <c r="J27" t="n">
-        <v>9.37477274927854</v>
+        <v>8.89820584243687</v>
       </c>
       <c r="K27" t="n">
         <v>6.6</v>
       </c>
       <c r="L27" t="n">
-        <v>5.928437066802593</v>
+        <v>6.163870838013365</v>
       </c>
     </row>
     <row r="28">
@@ -1488,37 +1488,37 @@
         <v>8.6</v>
       </c>
       <c r="B28" t="n">
-        <v>7.625557323146809</v>
+        <v>7.976383429813553</v>
       </c>
       <c r="C28" t="n">
         <v>8.75</v>
       </c>
       <c r="D28" t="n">
-        <v>8.482508331502041</v>
+        <v>8.390303157659307</v>
       </c>
       <c r="E28" t="n">
         <v>8.5</v>
       </c>
       <c r="F28" t="n">
-        <v>9.555341018933984</v>
+        <v>9.008991004778748</v>
       </c>
       <c r="G28" t="n">
         <v>8.5</v>
       </c>
       <c r="H28" t="n">
-        <v>8.938227681646149</v>
+        <v>8.614266204728169</v>
       </c>
       <c r="I28" t="n">
         <v>9.25</v>
       </c>
       <c r="J28" t="n">
-        <v>9.892070252415555</v>
+        <v>9.710831202825322</v>
       </c>
       <c r="K28" t="n">
         <v>5.2</v>
       </c>
       <c r="L28" t="n">
-        <v>4.632794456889993</v>
+        <v>5.034359107071978</v>
       </c>
     </row>
     <row r="29">
@@ -1526,37 +1526,37 @@
         <v>7</v>
       </c>
       <c r="B29" t="n">
-        <v>7.198901455549556</v>
+        <v>7.413506828688405</v>
       </c>
       <c r="C29" t="n">
         <v>8.25</v>
       </c>
       <c r="D29" t="n">
-        <v>7.723758830396113</v>
+        <v>7.499922728150732</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>7.353507569933638</v>
+        <v>7.075231738668876</v>
       </c>
       <c r="G29" t="n">
         <v>8</v>
       </c>
       <c r="H29" t="n">
-        <v>8.549043454332343</v>
+        <v>8.175672523041962</v>
       </c>
       <c r="I29" t="n">
         <v>9.25</v>
       </c>
       <c r="J29" t="n">
-        <v>9.740921888278006</v>
+        <v>9.462914267019482</v>
       </c>
       <c r="K29" t="n">
         <v>8</v>
       </c>
       <c r="L29" t="n">
-        <v>7.072383481890869</v>
+        <v>7.282986626677133</v>
       </c>
     </row>
     <row r="30">
@@ -1564,37 +1564,37 @@
         <v>8</v>
       </c>
       <c r="B30" t="n">
-        <v>7.545251957163542</v>
+        <v>7.805318446967053</v>
       </c>
       <c r="C30" t="n">
         <v>8.75</v>
       </c>
       <c r="D30" t="n">
-        <v>8.425068813572855</v>
+        <v>8.293679744739126</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
       </c>
       <c r="F30" t="n">
-        <v>8.966125588749227</v>
+        <v>8.303522346046774</v>
       </c>
       <c r="G30" t="n">
         <v>7.75</v>
       </c>
       <c r="H30" t="n">
-        <v>8.775006254399772</v>
+        <v>8.388705752702089</v>
       </c>
       <c r="I30" t="n">
         <v>8.75</v>
       </c>
       <c r="J30" t="n">
-        <v>9.693610837308549</v>
+        <v>9.326408421145846</v>
       </c>
       <c r="K30" t="n">
         <v>7.8</v>
       </c>
       <c r="L30" t="n">
-        <v>7.741295187131492</v>
+        <v>7.868736579564475</v>
       </c>
     </row>
     <row r="31">
@@ -1602,37 +1602,37 @@
         <v>3.8</v>
       </c>
       <c r="B31" t="n">
-        <v>5.992276779917933</v>
+        <v>6.180576275368526</v>
       </c>
       <c r="C31" t="n">
         <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>6.965356568333355</v>
+        <v>6.555874791478959</v>
       </c>
       <c r="E31" t="n">
         <v>3.75</v>
       </c>
       <c r="F31" t="n">
-        <v>4.648045059337242</v>
+        <v>4.586179922033969</v>
       </c>
       <c r="G31" t="n">
         <v>6</v>
       </c>
       <c r="H31" t="n">
-        <v>6.809690030170131</v>
+        <v>6.085498408548497</v>
       </c>
       <c r="I31" t="n">
         <v>7.25</v>
       </c>
       <c r="J31" t="n">
-        <v>8.403302066666308</v>
+        <v>7.410980531614251</v>
       </c>
       <c r="K31" t="n">
         <v>4.6</v>
       </c>
       <c r="L31" t="n">
-        <v>4.209100547194518</v>
+        <v>4.684926588379494</v>
       </c>
     </row>
     <row r="32">
@@ -1640,37 +1640,37 @@
         <v>3.8</v>
       </c>
       <c r="B32" t="n">
-        <v>5.515908418125615</v>
+        <v>5.622963011895616</v>
       </c>
       <c r="C32" t="n">
         <v>7.25</v>
       </c>
       <c r="D32" t="n">
-        <v>7.950592167803231</v>
+        <v>7.717868835721354</v>
       </c>
       <c r="E32" t="n">
         <v>3.75</v>
       </c>
       <c r="F32" t="n">
-        <v>4.302943609124099</v>
+        <v>4.278640598367693</v>
       </c>
       <c r="G32" t="n">
         <v>5</v>
       </c>
       <c r="H32" t="n">
-        <v>6.953905349806377</v>
+        <v>6.287830355998096</v>
       </c>
       <c r="I32" t="n">
         <v>8</v>
       </c>
       <c r="J32" t="n">
-        <v>8.786131736834964</v>
+        <v>7.999190025537304</v>
       </c>
       <c r="K32" t="n">
         <v>4</v>
       </c>
       <c r="L32" t="n">
-        <v>3.360119703558489</v>
+        <v>3.884808442995286</v>
       </c>
     </row>
     <row r="33">
@@ -1678,37 +1678,37 @@
         <v>7.6</v>
       </c>
       <c r="B33" t="n">
-        <v>7.756005222331956</v>
+        <v>8.060597750004153</v>
       </c>
       <c r="C33" t="n">
         <v>9</v>
       </c>
       <c r="D33" t="n">
-        <v>8.473840154176536</v>
+        <v>8.392967859572156</v>
       </c>
       <c r="E33" t="n">
         <v>8.75</v>
       </c>
       <c r="F33" t="n">
-        <v>7.17358299303739</v>
+        <v>6.72276336103743</v>
       </c>
       <c r="G33" t="n">
         <v>8.25</v>
       </c>
       <c r="H33" t="n">
-        <v>8.098963672402006</v>
+        <v>7.519849490931819</v>
       </c>
       <c r="I33" t="n">
         <v>9</v>
       </c>
       <c r="J33" t="n">
-        <v>9.459612688612239</v>
+        <v>9.001373751221738</v>
       </c>
       <c r="K33" t="n">
         <v>5.8</v>
       </c>
       <c r="L33" t="n">
-        <v>6.38102506245011</v>
+        <v>6.605463238237519</v>
       </c>
     </row>
     <row r="34">
@@ -1716,37 +1716,37 @@
         <v>6.4</v>
       </c>
       <c r="B34" t="n">
-        <v>5.974800543689605</v>
+        <v>6.078291400912709</v>
       </c>
       <c r="C34" t="n">
         <v>5.5</v>
       </c>
       <c r="D34" t="n">
-        <v>6.678280182126368</v>
+        <v>6.206106666913713</v>
       </c>
       <c r="E34" t="n">
         <v>4.75</v>
       </c>
       <c r="F34" t="n">
-        <v>4.346805180797882</v>
+        <v>4.375871177533998</v>
       </c>
       <c r="G34" t="n">
         <v>6.5</v>
       </c>
       <c r="H34" t="n">
-        <v>7.11840327259594</v>
+        <v>6.486702103094499</v>
       </c>
       <c r="I34" t="n">
         <v>8.5</v>
       </c>
       <c r="J34" t="n">
-        <v>8.899386402000804</v>
+        <v>8.21934873418714</v>
       </c>
       <c r="K34" t="n">
         <v>6.6</v>
       </c>
       <c r="L34" t="n">
-        <v>6.008115921593269</v>
+        <v>6.272523479425061</v>
       </c>
     </row>
     <row r="35">
@@ -1754,37 +1754,37 @@
         <v>7.2</v>
       </c>
       <c r="B35" t="n">
-        <v>7.103112617352764</v>
+        <v>7.373732042931657</v>
       </c>
       <c r="C35" t="n">
         <v>8.25</v>
       </c>
       <c r="D35" t="n">
-        <v>8.323521649265315</v>
+        <v>8.152573261616602</v>
       </c>
       <c r="E35" t="n">
         <v>5.25</v>
       </c>
       <c r="F35" t="n">
-        <v>6.854840733024352</v>
+        <v>6.477817997107724</v>
       </c>
       <c r="G35" t="n">
         <v>7.25</v>
       </c>
       <c r="H35" t="n">
-        <v>7.712343493707087</v>
+        <v>7.14929879930186</v>
       </c>
       <c r="I35" t="n">
         <v>9</v>
       </c>
       <c r="J35" t="n">
-        <v>9.122431509565816</v>
+        <v>8.454637074896901</v>
       </c>
       <c r="K35" t="n">
         <v>5.4</v>
       </c>
       <c r="L35" t="n">
-        <v>5.862960244524557</v>
+        <v>6.197953644962974</v>
       </c>
     </row>
     <row r="36">
@@ -1792,37 +1792,37 @@
         <v>7.8</v>
       </c>
       <c r="B36" t="n">
-        <v>7.16153797362008</v>
+        <v>7.371630153576072</v>
       </c>
       <c r="C36" t="n">
         <v>8.25</v>
       </c>
       <c r="D36" t="n">
-        <v>8.382121634709412</v>
+        <v>8.188505485291881</v>
       </c>
       <c r="E36" t="n">
         <v>5</v>
       </c>
       <c r="F36" t="n">
-        <v>6.085945091232185</v>
+        <v>5.711395023568638</v>
       </c>
       <c r="G36" t="n">
         <v>7</v>
       </c>
       <c r="H36" t="n">
-        <v>8.120319608808662</v>
+        <v>7.570982874586859</v>
       </c>
       <c r="I36" t="n">
         <v>8.75</v>
       </c>
       <c r="J36" t="n">
-        <v>9.245758182916155</v>
+        <v>8.622483021116789</v>
       </c>
       <c r="K36" t="n">
         <v>6.2</v>
       </c>
       <c r="L36" t="n">
-        <v>5.493298915792433</v>
+        <v>5.75251632059112</v>
       </c>
     </row>
     <row r="37">
@@ -1830,37 +1830,37 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>7.253250036754475</v>
+        <v>7.535117999879691</v>
       </c>
       <c r="C37" t="n">
         <v>8.25</v>
       </c>
       <c r="D37" t="n">
-        <v>7.877369873881142</v>
+        <v>7.675766848092892</v>
       </c>
       <c r="E37" t="n">
         <v>5.5</v>
       </c>
       <c r="F37" t="n">
-        <v>5.631824779059177</v>
+        <v>5.440121119811691</v>
       </c>
       <c r="G37" t="n">
         <v>7.75</v>
       </c>
       <c r="H37" t="n">
-        <v>8.069488233294015</v>
+        <v>7.517497086411254</v>
       </c>
       <c r="I37" t="n">
         <v>8.25</v>
       </c>
       <c r="J37" t="n">
-        <v>9.16699650253036</v>
+        <v>8.592287195989115</v>
       </c>
       <c r="K37" t="n">
         <v>6.4</v>
       </c>
       <c r="L37" t="n">
-        <v>6.209994498333481</v>
+        <v>6.439522534556332</v>
       </c>
     </row>
     <row r="38">
@@ -1868,37 +1868,37 @@
         <v>6.2</v>
       </c>
       <c r="B38" t="n">
-        <v>7.14367279871714</v>
+        <v>7.427227387604224</v>
       </c>
       <c r="C38" t="n">
         <v>8</v>
       </c>
       <c r="D38" t="n">
-        <v>8.288811760133303</v>
+        <v>8.088726370286786</v>
       </c>
       <c r="E38" t="n">
         <v>7.75</v>
       </c>
       <c r="F38" t="n">
-        <v>7.982312775214458</v>
+        <v>7.429792083207417</v>
       </c>
       <c r="G38" t="n">
         <v>7</v>
       </c>
       <c r="H38" t="n">
-        <v>8.303101380560236</v>
+        <v>7.853769574108126</v>
       </c>
       <c r="I38" t="n">
         <v>8.25</v>
       </c>
       <c r="J38" t="n">
-        <v>9.430948971326647</v>
+        <v>8.884884369788987</v>
       </c>
       <c r="K38" t="n">
         <v>5.6</v>
       </c>
       <c r="L38" t="n">
-        <v>5.800227234384362</v>
+        <v>6.154395735530965</v>
       </c>
     </row>
     <row r="39">
@@ -1906,37 +1906,37 @@
         <v>6.8</v>
       </c>
       <c r="B39" t="n">
-        <v>6.562783390786371</v>
+        <v>6.784708541966738</v>
       </c>
       <c r="C39" t="n">
         <v>9.25</v>
       </c>
       <c r="D39" t="n">
-        <v>7.776537841254706</v>
+        <v>7.588584829826309</v>
       </c>
       <c r="E39" t="n">
         <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>5.137902028349127</v>
+        <v>4.987009290060433</v>
       </c>
       <c r="G39" t="n">
         <v>6.25</v>
       </c>
       <c r="H39" t="n">
-        <v>7.603505804059844</v>
+        <v>7.005184055579414</v>
       </c>
       <c r="I39" t="n">
         <v>9</v>
       </c>
       <c r="J39" t="n">
-        <v>9.191307515361421</v>
+        <v>8.65785811538041</v>
       </c>
       <c r="K39" t="n">
         <v>7</v>
       </c>
       <c r="L39" t="n">
-        <v>5.510107435937242</v>
+        <v>5.841826338642248</v>
       </c>
     </row>
     <row r="40">
@@ -1944,37 +1944,37 @@
         <v>7.6</v>
       </c>
       <c r="B40" t="n">
-        <v>7.607777187304898</v>
+        <v>7.877437388901349</v>
       </c>
       <c r="C40" t="n">
         <v>8.25</v>
       </c>
       <c r="D40" t="n">
-        <v>8.452904946161519</v>
+        <v>8.310044586289283</v>
       </c>
       <c r="E40" t="n">
         <v>7.5</v>
       </c>
       <c r="F40" t="n">
-        <v>8.081727778500692</v>
+        <v>7.581278350825427</v>
       </c>
       <c r="G40" t="n">
         <v>8</v>
       </c>
       <c r="H40" t="n">
-        <v>8.174962558272062</v>
+        <v>7.677657950398046</v>
       </c>
       <c r="I40" t="n">
         <v>8.5</v>
       </c>
       <c r="J40" t="n">
-        <v>9.483044090486857</v>
+        <v>8.99382320522998</v>
       </c>
       <c r="K40" t="n">
         <v>7.6</v>
       </c>
       <c r="L40" t="n">
-        <v>7.305300975431543</v>
+        <v>7.490645631895314</v>
       </c>
     </row>
     <row r="41">
@@ -1982,37 +1982,37 @@
         <v>8</v>
       </c>
       <c r="B41" t="n">
-        <v>6.955028438272129</v>
+        <v>7.2640917706647</v>
       </c>
       <c r="C41" t="n">
         <v>8.5</v>
       </c>
       <c r="D41" t="n">
-        <v>7.846467721636563</v>
+        <v>7.635804832023372</v>
       </c>
       <c r="E41" t="n">
         <v>7.25</v>
       </c>
       <c r="F41" t="n">
-        <v>7.191766636761278</v>
+        <v>6.710526119122044</v>
       </c>
       <c r="G41" t="n">
         <v>7.5</v>
       </c>
       <c r="H41" t="n">
-        <v>7.937691080196815</v>
+        <v>7.353135164524277</v>
       </c>
       <c r="I41" t="n">
         <v>10</v>
       </c>
       <c r="J41" t="n">
-        <v>9.357472769626746</v>
+        <v>8.881558511414877</v>
       </c>
       <c r="K41" t="n">
         <v>6.2</v>
       </c>
       <c r="L41" t="n">
-        <v>6.219944692574109</v>
+        <v>6.496372933986247</v>
       </c>
     </row>
     <row r="42">
@@ -2020,37 +2020,37 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>6.44923634926864</v>
+        <v>6.675456386750078</v>
       </c>
       <c r="C42" t="n">
         <v>8</v>
       </c>
       <c r="D42" t="n">
-        <v>8.409766990387238</v>
+        <v>8.277842731175344</v>
       </c>
       <c r="E42" t="n">
         <v>7.25</v>
       </c>
       <c r="F42" t="n">
-        <v>5.60842284379132</v>
+        <v>5.498698870316963</v>
       </c>
       <c r="G42" t="n">
         <v>8</v>
       </c>
       <c r="H42" t="n">
-        <v>7.545453973898432</v>
+        <v>6.988826699921772</v>
       </c>
       <c r="I42" t="n">
         <v>8.75</v>
       </c>
       <c r="J42" t="n">
-        <v>9.168993418002852</v>
+        <v>8.572651587597321</v>
       </c>
       <c r="K42" t="n">
         <v>6.2</v>
       </c>
       <c r="L42" t="n">
-        <v>4.042066066781066</v>
+        <v>4.470066182591242</v>
       </c>
     </row>
     <row r="43">
@@ -2058,37 +2058,37 @@
         <v>4.8</v>
       </c>
       <c r="B43" t="n">
-        <v>4.933609700981666</v>
+        <v>4.885976099886923</v>
       </c>
       <c r="C43" t="n">
         <v>7.75</v>
       </c>
       <c r="D43" t="n">
-        <v>7.953467966379794</v>
+        <v>7.732449294814098</v>
       </c>
       <c r="E43" t="n">
         <v>5.75</v>
       </c>
       <c r="F43" t="n">
-        <v>4.511289137133875</v>
+        <v>4.430669697629474</v>
       </c>
       <c r="G43" t="n">
         <v>4.75</v>
       </c>
       <c r="H43" t="n">
-        <v>6.793659717866072</v>
+        <v>6.055983281808913</v>
       </c>
       <c r="I43" t="n">
         <v>8.5</v>
       </c>
       <c r="J43" t="n">
-        <v>8.81710649040137</v>
+        <v>8.022940102106423</v>
       </c>
       <c r="K43" t="n">
         <v>4.6</v>
       </c>
       <c r="L43" t="n">
-        <v>2.99200619621319</v>
+        <v>3.5491261675109</v>
       </c>
     </row>
     <row r="44">
@@ -2096,37 +2096,37 @@
         <v>8</v>
       </c>
       <c r="B44" t="n">
-        <v>7.149945291393077</v>
+        <v>7.468757167693417</v>
       </c>
       <c r="C44" t="n">
         <v>8.25</v>
       </c>
       <c r="D44" t="n">
-        <v>8.306147318544607</v>
+        <v>8.156506324181777</v>
       </c>
       <c r="E44" t="n">
         <v>8.25</v>
       </c>
       <c r="F44" t="n">
-        <v>8.43131317625706</v>
+        <v>7.863022748614442</v>
       </c>
       <c r="G44" t="n">
         <v>8.75</v>
       </c>
       <c r="H44" t="n">
-        <v>8.720302668557011</v>
+        <v>8.339351975571253</v>
       </c>
       <c r="I44" t="n">
         <v>9</v>
       </c>
       <c r="J44" t="n">
-        <v>9.856184018121382</v>
+        <v>9.641444593497004</v>
       </c>
       <c r="K44" t="n">
         <v>6</v>
       </c>
       <c r="L44" t="n">
-        <v>5.817502983891043</v>
+        <v>6.128979051207338</v>
       </c>
     </row>
     <row r="45">
@@ -2134,37 +2134,37 @@
         <v>7.8</v>
       </c>
       <c r="B45" t="n">
-        <v>7.120154892183688</v>
+        <v>7.388031017170813</v>
       </c>
       <c r="C45" t="n">
         <v>9</v>
       </c>
       <c r="D45" t="n">
-        <v>8.121432499564909</v>
+        <v>7.980201001354268</v>
       </c>
       <c r="E45" t="n">
         <v>8.5</v>
       </c>
       <c r="F45" t="n">
-        <v>8.280829554189536</v>
+        <v>7.79400499074355</v>
       </c>
       <c r="G45" t="n">
         <v>7.75</v>
       </c>
       <c r="H45" t="n">
-        <v>8.116900890930907</v>
+        <v>7.614599119277107</v>
       </c>
       <c r="I45" t="n">
         <v>9</v>
       </c>
       <c r="J45" t="n">
-        <v>9.421014287463011</v>
+        <v>8.962003485443173</v>
       </c>
       <c r="K45" t="n">
         <v>6.6</v>
       </c>
       <c r="L45" t="n">
-        <v>5.91387548546303</v>
+        <v>6.265698043155975</v>
       </c>
     </row>
     <row r="46">
@@ -2172,37 +2172,37 @@
         <v>5.8</v>
       </c>
       <c r="B46" t="n">
-        <v>5.895946934580894</v>
+        <v>5.929400790725285</v>
       </c>
       <c r="C46" t="n">
         <v>6.75</v>
       </c>
       <c r="D46" t="n">
-        <v>7.289686100230869</v>
+        <v>6.88878768343125</v>
       </c>
       <c r="E46" t="n">
         <v>7.75</v>
       </c>
       <c r="F46" t="n">
-        <v>5.660982337564434</v>
+        <v>5.495333883220356</v>
       </c>
       <c r="G46" t="n">
         <v>7.25</v>
       </c>
       <c r="H46" t="n">
-        <v>7.723290929362138</v>
+        <v>7.176882997292289</v>
       </c>
       <c r="I46" t="n">
         <v>8</v>
       </c>
       <c r="J46" t="n">
-        <v>8.7766176787408</v>
+        <v>7.981054367380829</v>
       </c>
       <c r="K46" t="n">
         <v>5.6</v>
       </c>
       <c r="L46" t="n">
-        <v>5.763126900628659</v>
+        <v>6.044374668333042</v>
       </c>
     </row>
     <row r="47">
@@ -2210,37 +2210,37 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>7.255915406655796</v>
+        <v>7.602635929524393</v>
       </c>
       <c r="C47" t="n">
         <v>7.5</v>
       </c>
       <c r="D47" t="n">
-        <v>7.871582944255073</v>
+        <v>7.690015862126098</v>
       </c>
       <c r="E47" t="n">
         <v>6.75</v>
       </c>
       <c r="F47" t="n">
-        <v>7.349354544721641</v>
+        <v>6.947046932565067</v>
       </c>
       <c r="G47" t="n">
         <v>7.5</v>
       </c>
       <c r="H47" t="n">
-        <v>8.290956272985831</v>
+        <v>7.861742522966988</v>
       </c>
       <c r="I47" t="n">
         <v>8.5</v>
       </c>
       <c r="J47" t="n">
-        <v>9.319624978522597</v>
+        <v>8.81584816558485</v>
       </c>
       <c r="K47" t="n">
         <v>4.4</v>
       </c>
       <c r="L47" t="n">
-        <v>5.594948675165822</v>
+        <v>5.975568638386255</v>
       </c>
     </row>
     <row r="48">
@@ -2248,37 +2248,37 @@
         <v>6.6</v>
       </c>
       <c r="B48" t="n">
-        <v>7.326715286856035</v>
+        <v>7.617825824482609</v>
       </c>
       <c r="C48" t="n">
         <v>7</v>
       </c>
       <c r="D48" t="n">
-        <v>8.04869752172856</v>
+        <v>7.90157383081347</v>
       </c>
       <c r="E48" t="n">
         <v>3</v>
       </c>
       <c r="F48" t="n">
-        <v>7.122864237084057</v>
+        <v>6.827934946779516</v>
       </c>
       <c r="G48" t="n">
         <v>7.75</v>
       </c>
       <c r="H48" t="n">
-        <v>8.23514284518882</v>
+        <v>7.75117302857743</v>
       </c>
       <c r="I48" t="n">
         <v>9</v>
       </c>
       <c r="J48" t="n">
-        <v>9.476188047525991</v>
+        <v>9.077656245791674</v>
       </c>
       <c r="K48" t="n">
         <v>5.6</v>
       </c>
       <c r="L48" t="n">
-        <v>6.053225711498435</v>
+        <v>6.315769487968465</v>
       </c>
     </row>
     <row r="49">
@@ -2286,37 +2286,37 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>7.865608027574424</v>
+        <v>8.227542050396103</v>
       </c>
       <c r="C49" t="n">
         <v>9</v>
       </c>
       <c r="D49" t="n">
-        <v>8.144035957230111</v>
+        <v>8.042020250765358</v>
       </c>
       <c r="E49" t="n">
         <v>9.5</v>
       </c>
       <c r="F49" t="n">
-        <v>7.99549239671581</v>
+        <v>7.586907634834004</v>
       </c>
       <c r="G49" t="n">
         <v>9</v>
       </c>
       <c r="H49" t="n">
-        <v>8.435247194632208</v>
+        <v>8.001543719439441</v>
       </c>
       <c r="I49" t="n">
         <v>9.75</v>
       </c>
       <c r="J49" t="n">
-        <v>9.792327683986331</v>
+        <v>9.527252922978356</v>
       </c>
       <c r="K49" t="n">
         <v>7.2</v>
       </c>
       <c r="L49" t="n">
-        <v>6.225637844902475</v>
+        <v>6.518121199809331</v>
       </c>
     </row>
     <row r="50">
@@ -2324,37 +2324,37 @@
         <v>7.2</v>
       </c>
       <c r="B50" t="n">
-        <v>7.623519107055994</v>
+        <v>7.98018088847139</v>
       </c>
       <c r="C50" t="n">
         <v>8</v>
       </c>
       <c r="D50" t="n">
-        <v>8.012883331516162</v>
+        <v>7.779724322924216</v>
       </c>
       <c r="E50" t="n">
         <v>8.5</v>
       </c>
       <c r="F50" t="n">
-        <v>7.769824412532306</v>
+        <v>7.340181510954988</v>
       </c>
       <c r="G50" t="n">
         <v>8</v>
       </c>
       <c r="H50" t="n">
-        <v>8.295139201751926</v>
+        <v>7.870247107623745</v>
       </c>
       <c r="I50" t="n">
         <v>9</v>
       </c>
       <c r="J50" t="n">
-        <v>9.290948296940872</v>
+        <v>8.726796648286282</v>
       </c>
       <c r="K50" t="n">
         <v>6.4</v>
       </c>
       <c r="L50" t="n">
-        <v>5.872912397415649</v>
+        <v>6.174951516545127</v>
       </c>
     </row>
     <row r="51">
@@ -2362,37 +2362,37 @@
         <v>7.2</v>
       </c>
       <c r="B51" t="n">
-        <v>6.380749611125491</v>
+        <v>6.520836699798845</v>
       </c>
       <c r="C51" t="n">
         <v>7.5</v>
       </c>
       <c r="D51" t="n">
-        <v>7.541369485334647</v>
+        <v>7.185403745315231</v>
       </c>
       <c r="E51" t="n">
         <v>3.75</v>
       </c>
       <c r="F51" t="n">
-        <v>4.53128421411942</v>
+        <v>4.469665939505985</v>
       </c>
       <c r="G51" t="n">
         <v>6.75</v>
       </c>
       <c r="H51" t="n">
-        <v>7.200289576109587</v>
+        <v>6.567237584800504</v>
       </c>
       <c r="I51" t="n">
         <v>8.25</v>
       </c>
       <c r="J51" t="n">
-        <v>9.18591839675228</v>
+        <v>8.585118386929022</v>
       </c>
       <c r="K51" t="n">
         <v>6.2</v>
       </c>
       <c r="L51" t="n">
-        <v>5.951154268642214</v>
+        <v>6.245835311908753</v>
       </c>
     </row>
     <row r="52">
@@ -2400,37 +2400,37 @@
         <v>4</v>
       </c>
       <c r="B52" t="n">
-        <v>5.219416409997621</v>
+        <v>5.242605929493958</v>
       </c>
       <c r="C52" t="n">
         <v>7.5</v>
       </c>
       <c r="D52" t="n">
-        <v>7.819263611847779</v>
+        <v>7.594383075842353</v>
       </c>
       <c r="E52" t="n">
         <v>4.25</v>
       </c>
       <c r="F52" t="n">
-        <v>4.364867667876839</v>
+        <v>4.395453146729135</v>
       </c>
       <c r="G52" t="n">
         <v>5.5</v>
       </c>
       <c r="H52" t="n">
-        <v>6.960081124989717</v>
+        <v>6.308948200220176</v>
       </c>
       <c r="I52" t="n">
         <v>7.5</v>
       </c>
       <c r="J52" t="n">
-        <v>8.820660565174984</v>
+        <v>8.102815968770493</v>
       </c>
       <c r="K52" t="n">
         <v>4.8</v>
       </c>
       <c r="L52" t="n">
-        <v>2.871026139406499</v>
+        <v>3.399627263523618</v>
       </c>
     </row>
     <row r="53">
@@ -2438,37 +2438,37 @@
         <v>6.6</v>
       </c>
       <c r="B53" t="n">
-        <v>5.268285846653902</v>
+        <v>5.33610829028406</v>
       </c>
       <c r="C53" t="n">
         <v>8.5</v>
       </c>
       <c r="D53" t="n">
-        <v>7.62310035864863</v>
+        <v>7.360876453188554</v>
       </c>
       <c r="E53" t="n">
         <v>5</v>
       </c>
       <c r="F53" t="n">
-        <v>2.308051788388094</v>
+        <v>2.454094813855095</v>
       </c>
       <c r="G53" t="n">
         <v>6.25</v>
       </c>
       <c r="H53" t="n">
-        <v>6.2481755819103</v>
+        <v>5.414711542210527</v>
       </c>
       <c r="I53" t="n">
         <v>8.5</v>
       </c>
       <c r="J53" t="n">
-        <v>8.330351080601321</v>
+        <v>7.328050538771527</v>
       </c>
       <c r="K53" t="n">
         <v>2.8</v>
       </c>
       <c r="L53" t="n">
-        <v>2.7893127181851</v>
+        <v>3.358104224835238</v>
       </c>
     </row>
     <row r="54">
@@ -2476,37 +2476,37 @@
         <v>6.6</v>
       </c>
       <c r="B54" t="n">
-        <v>6.484904243208012</v>
+        <v>6.640198247836564</v>
       </c>
       <c r="C54" t="n">
         <v>7.58</v>
       </c>
       <c r="D54" t="n">
-        <v>8.286174153483289</v>
+        <v>8.157104461713228</v>
       </c>
       <c r="E54" t="n">
         <v>8.25</v>
       </c>
       <c r="F54" t="n">
-        <v>6.708291768508218</v>
+        <v>6.327783933581165</v>
       </c>
       <c r="G54" t="n">
         <v>8</v>
       </c>
       <c r="H54" t="n">
-        <v>7.970419644410828</v>
+        <v>7.445324798040659</v>
       </c>
       <c r="I54" t="n">
         <v>8.75</v>
       </c>
       <c r="J54" t="n">
-        <v>9.228134407141955</v>
+        <v>8.613055841928347</v>
       </c>
       <c r="K54" t="n">
         <v>4.2</v>
       </c>
       <c r="L54" t="n">
-        <v>4.779213657603521</v>
+        <v>5.264324609370875</v>
       </c>
     </row>
     <row r="55">
@@ -2514,37 +2514,37 @@
         <v>6</v>
       </c>
       <c r="B55" t="n">
-        <v>6.122693899401847</v>
+        <v>6.356624520059237</v>
       </c>
       <c r="C55" t="n">
         <v>7</v>
       </c>
       <c r="D55" t="n">
-        <v>7.717593761033444</v>
+        <v>7.444899875710639</v>
       </c>
       <c r="E55" t="n">
         <v>6</v>
       </c>
       <c r="F55" t="n">
-        <v>6.325835486538594</v>
+        <v>6.057388224002059</v>
       </c>
       <c r="G55" t="n">
         <v>7.25</v>
       </c>
       <c r="H55" t="n">
-        <v>7.535253696669103</v>
+        <v>6.9562890707767</v>
       </c>
       <c r="I55" t="n">
         <v>8.75</v>
       </c>
       <c r="J55" t="n">
-        <v>9.112665221011666</v>
+        <v>8.515320909918481</v>
       </c>
       <c r="K55" t="n">
         <v>5.6</v>
       </c>
       <c r="L55" t="n">
-        <v>4.187885177401698</v>
+        <v>4.692416706794929</v>
       </c>
     </row>
     <row r="56">
@@ -2552,37 +2552,37 @@
         <v>7.8</v>
       </c>
       <c r="B56" t="n">
-        <v>6.466639165628144</v>
+        <v>6.70138476888551</v>
       </c>
       <c r="C56" t="n">
         <v>8.25</v>
       </c>
       <c r="D56" t="n">
-        <v>6.407348338841318</v>
+        <v>5.898367347776595</v>
       </c>
       <c r="E56" t="n">
         <v>6.5</v>
       </c>
       <c r="F56" t="n">
-        <v>3.760670000470512</v>
+        <v>3.940102505902592</v>
       </c>
       <c r="G56" t="n">
         <v>8.25</v>
       </c>
       <c r="H56" t="n">
-        <v>7.384612025277574</v>
+        <v>6.852070344168141</v>
       </c>
       <c r="I56" t="n">
         <v>9</v>
       </c>
       <c r="J56" t="n">
-        <v>8.659211751990256</v>
+        <v>7.84749475485289</v>
       </c>
       <c r="K56" t="n">
         <v>6.4</v>
       </c>
       <c r="L56" t="n">
-        <v>5.199543493795952</v>
+        <v>5.602893400849416</v>
       </c>
     </row>
     <row r="57">
@@ -2590,37 +2590,37 @@
         <v>4</v>
       </c>
       <c r="B57" t="n">
-        <v>4.798504263705093</v>
+        <v>4.768882017396035</v>
       </c>
       <c r="C57" t="n">
         <v>5.5</v>
       </c>
       <c r="D57" t="n">
-        <v>6.001034922135326</v>
+        <v>5.414797946397851</v>
       </c>
       <c r="E57" t="n">
         <v>4.75</v>
       </c>
       <c r="F57" t="n">
-        <v>2.171379308871156</v>
+        <v>2.52665253512961</v>
       </c>
       <c r="G57" t="n">
         <v>7.25</v>
       </c>
       <c r="H57" t="n">
-        <v>6.406615006302697</v>
+        <v>5.669079877044142</v>
       </c>
       <c r="I57" t="n">
         <v>8.5</v>
       </c>
       <c r="J57" t="n">
-        <v>8.238327570949542</v>
+        <v>7.223261110240766</v>
       </c>
       <c r="K57" t="n">
         <v>3.6</v>
       </c>
       <c r="L57" t="n">
-        <v>4.681338733608112</v>
+        <v>5.089040421676468</v>
       </c>
     </row>
     <row r="58">
@@ -2628,37 +2628,37 @@
         <v>6.4</v>
       </c>
       <c r="B58" t="n">
-        <v>7.068028145677629</v>
+        <v>7.270414222595625</v>
       </c>
       <c r="C58" t="n">
         <v>7</v>
       </c>
       <c r="D58" t="n">
-        <v>7.488319332764877</v>
+        <v>7.140161970191708</v>
       </c>
       <c r="E58" t="n">
         <v>4.75</v>
       </c>
       <c r="F58" t="n">
-        <v>6.262804818785216</v>
+        <v>6.094419685253648</v>
       </c>
       <c r="G58" t="n">
         <v>8</v>
       </c>
       <c r="H58" t="n">
-        <v>7.996111390575731</v>
+        <v>7.499829982321415</v>
       </c>
       <c r="I58" t="n">
         <v>9.5</v>
       </c>
       <c r="J58" t="n">
-        <v>9.444703925510154</v>
+        <v>9.004765439875552</v>
       </c>
       <c r="K58" t="n">
         <v>7.2</v>
       </c>
       <c r="L58" t="n">
-        <v>6.379209758155077</v>
+        <v>6.626522161686154</v>
       </c>
     </row>
     <row r="59">
@@ -2666,37 +2666,37 @@
         <v>7</v>
       </c>
       <c r="B59" t="n">
-        <v>6.050521099409458</v>
+        <v>6.199633650090576</v>
       </c>
       <c r="C59" t="n">
         <v>6.75</v>
       </c>
       <c r="D59" t="n">
-        <v>7.305700230874001</v>
+        <v>7.020126989793374</v>
       </c>
       <c r="E59" t="n">
         <v>6.5</v>
       </c>
       <c r="F59" t="n">
-        <v>7.537832163114791</v>
+        <v>7.144332830778813</v>
       </c>
       <c r="G59" t="n">
         <v>5.75</v>
       </c>
       <c r="H59" t="n">
-        <v>8.031923302002927</v>
+        <v>7.518421307550359</v>
       </c>
       <c r="I59" t="n">
         <v>8</v>
       </c>
       <c r="J59" t="n">
-        <v>9.052666432210357</v>
+        <v>8.422090902308042</v>
       </c>
       <c r="K59" t="n">
         <v>7</v>
       </c>
       <c r="L59" t="n">
-        <v>5.352296092485298</v>
+        <v>5.725627905693921</v>
       </c>
     </row>
     <row r="60">
@@ -2704,37 +2704,37 @@
         <v>6.2</v>
       </c>
       <c r="B60" t="n">
-        <v>6.837771029017121</v>
+        <v>7.020005469613912</v>
       </c>
       <c r="C60" t="n">
         <v>8</v>
       </c>
       <c r="D60" t="n">
-        <v>8.369741766508195</v>
+        <v>8.266642018282884</v>
       </c>
       <c r="E60" t="n">
         <v>6.75</v>
       </c>
       <c r="F60" t="n">
-        <v>7.211311353715125</v>
+        <v>6.820496298508798</v>
       </c>
       <c r="G60" t="n">
         <v>7.5</v>
       </c>
       <c r="H60" t="n">
-        <v>8.4930653539812</v>
+        <v>8.054748368446909</v>
       </c>
       <c r="I60" t="n">
         <v>9</v>
       </c>
       <c r="J60" t="n">
-        <v>9.605657997328715</v>
+        <v>9.235360854434376</v>
       </c>
       <c r="K60" t="n">
         <v>5.2</v>
       </c>
       <c r="L60" t="n">
-        <v>5.359741130234635</v>
+        <v>5.61960535562107</v>
       </c>
     </row>
     <row r="61">
@@ -2742,37 +2742,37 @@
         <v>3.8</v>
       </c>
       <c r="B61" t="n">
-        <v>5.625966421833505</v>
+        <v>5.71782573187796</v>
       </c>
       <c r="C61" t="n">
         <v>8.5</v>
       </c>
       <c r="D61" t="n">
-        <v>8.213374977301093</v>
+        <v>8.060644126874603</v>
       </c>
       <c r="E61" t="n">
         <v>4.5</v>
       </c>
       <c r="F61" t="n">
-        <v>5.94145745634015</v>
+        <v>5.700348246706687</v>
       </c>
       <c r="G61" t="n">
         <v>6.5</v>
       </c>
       <c r="H61" t="n">
-        <v>7.623959052936893</v>
+        <v>7.015911323585819</v>
       </c>
       <c r="I61" t="n">
         <v>8.5</v>
       </c>
       <c r="J61" t="n">
-        <v>9.311264323675026</v>
+        <v>8.823833389720235</v>
       </c>
       <c r="K61" t="n">
         <v>4.2</v>
       </c>
       <c r="L61" t="n">
-        <v>3.950184974494879</v>
+        <v>4.415462472819053</v>
       </c>
     </row>
     <row r="62">
@@ -2780,37 +2780,37 @@
         <v>5.2</v>
       </c>
       <c r="B62" t="n">
-        <v>6.269628832624206</v>
+        <v>6.423586775278258</v>
       </c>
       <c r="C62" t="n">
         <v>8</v>
       </c>
       <c r="D62" t="n">
-        <v>7.100115095254245</v>
+        <v>6.685924186082513</v>
       </c>
       <c r="E62" t="n">
         <v>3.75</v>
       </c>
       <c r="F62" t="n">
-        <v>5.181190226420632</v>
+        <v>5.183960728222084</v>
       </c>
       <c r="G62" t="n">
         <v>7</v>
       </c>
       <c r="H62" t="n">
-        <v>7.446881663394705</v>
+        <v>6.933592987596256</v>
       </c>
       <c r="I62" t="n">
         <v>9.75</v>
       </c>
       <c r="J62" t="n">
-        <v>9.261888032447862</v>
+        <v>8.742708051479212</v>
       </c>
       <c r="K62" t="n">
         <v>5</v>
       </c>
       <c r="L62" t="n">
-        <v>4.70059836448665</v>
+        <v>5.144955442373583</v>
       </c>
     </row>
     <row r="63">
@@ -2818,37 +2818,37 @@
         <v>7.6</v>
       </c>
       <c r="B63" t="n">
-        <v>7.41976006884349</v>
+        <v>7.663993390059079</v>
       </c>
       <c r="C63" t="n">
         <v>9.25</v>
       </c>
       <c r="D63" t="n">
-        <v>8.350716449285855</v>
+        <v>8.232180630367992</v>
       </c>
       <c r="E63" t="n">
         <v>8.25</v>
       </c>
       <c r="F63" t="n">
-        <v>8.369740037519188</v>
+        <v>7.861618560660817</v>
       </c>
       <c r="G63" t="n">
         <v>8</v>
       </c>
       <c r="H63" t="n">
-        <v>8.633419373058146</v>
+        <v>8.216109770347407</v>
       </c>
       <c r="I63" t="n">
         <v>9.5</v>
       </c>
       <c r="J63" t="n">
-        <v>9.74463007443609</v>
+        <v>9.443126267269992</v>
       </c>
       <c r="K63" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="L63" t="n">
-        <v>8.040747197944649</v>
+        <v>8.153823702228838</v>
       </c>
     </row>
     <row r="64">
@@ -2856,37 +2856,37 @@
         <v>8</v>
       </c>
       <c r="B64" t="n">
-        <v>6.808951588338041</v>
+        <v>7.060007420051904</v>
       </c>
       <c r="C64" t="n">
         <v>6.5</v>
       </c>
       <c r="D64" t="n">
-        <v>8.047895059673126</v>
+        <v>7.855878340531224</v>
       </c>
       <c r="E64" t="n">
         <v>5.75</v>
       </c>
       <c r="F64" t="n">
-        <v>7.311544746143215</v>
+        <v>6.977565743769595</v>
       </c>
       <c r="G64" t="n">
         <v>7</v>
       </c>
       <c r="H64" t="n">
-        <v>8.10414409353983</v>
+        <v>7.634421506814327</v>
       </c>
       <c r="I64" t="n">
         <v>9</v>
       </c>
       <c r="J64" t="n">
-        <v>9.385426054477509</v>
+        <v>8.895261867049554</v>
       </c>
       <c r="K64" t="n">
         <v>4.4</v>
       </c>
       <c r="L64" t="n">
-        <v>5.105405975593676</v>
+        <v>5.499078149550151</v>
       </c>
     </row>
     <row r="65">
@@ -2894,37 +2894,37 @@
         <v>6.2</v>
       </c>
       <c r="B65" t="n">
-        <v>6.414779672402821</v>
+        <v>6.576120884248735</v>
       </c>
       <c r="C65" t="n">
         <v>6.75</v>
       </c>
       <c r="D65" t="n">
-        <v>7.218548110224968</v>
+        <v>6.830930402793601</v>
       </c>
       <c r="E65" t="n">
         <v>5.75</v>
       </c>
       <c r="F65" t="n">
-        <v>4.73412722776702</v>
+        <v>4.649975175558025</v>
       </c>
       <c r="G65" t="n">
         <v>6</v>
       </c>
       <c r="H65" t="n">
-        <v>7.528365969377468</v>
+        <v>6.923756955711459</v>
       </c>
       <c r="I65" t="n">
         <v>9.5</v>
       </c>
       <c r="J65" t="n">
-        <v>8.952969858587112</v>
+        <v>8.278492349463683</v>
       </c>
       <c r="K65" t="n">
         <v>8.4</v>
       </c>
       <c r="L65" t="n">
-        <v>6.426368233731197</v>
+        <v>6.697803550535259</v>
       </c>
     </row>
     <row r="66">
@@ -2932,37 +2932,37 @@
         <v>4.6</v>
       </c>
       <c r="B66" t="n">
-        <v>5.743809164461813</v>
+        <v>5.747976450077243</v>
       </c>
       <c r="C66" t="n">
         <v>7</v>
       </c>
       <c r="D66" t="n">
-        <v>7.520506557117999</v>
+        <v>7.228205088182846</v>
       </c>
       <c r="E66" t="n">
         <v>5.25</v>
       </c>
       <c r="F66" t="n">
-        <v>4.639523523335611</v>
+        <v>4.519444877130038</v>
       </c>
       <c r="G66" t="n">
         <v>8</v>
       </c>
       <c r="H66" t="n">
-        <v>7.717311119806974</v>
+        <v>7.101528684085678</v>
       </c>
       <c r="I66" t="n">
         <v>8</v>
       </c>
       <c r="J66" t="n">
-        <v>8.984742571095088</v>
+        <v>8.282207799929415</v>
       </c>
       <c r="K66" t="n">
         <v>5.4</v>
       </c>
       <c r="L66" t="n">
-        <v>5.360935941459824</v>
+        <v>5.645611790504898</v>
       </c>
     </row>
     <row r="67">
@@ -2970,37 +2970,37 @@
         <v>5.2</v>
       </c>
       <c r="B67" t="n">
-        <v>5.553655699984343</v>
+        <v>5.698577371061949</v>
       </c>
       <c r="C67" t="n">
         <v>6.5</v>
       </c>
       <c r="D67" t="n">
-        <v>6.573676714538809</v>
+        <v>6.110287153275202</v>
       </c>
       <c r="E67" t="n">
         <v>6.25</v>
       </c>
       <c r="F67" t="n">
-        <v>5.114637802729027</v>
+        <v>4.95657425213753</v>
       </c>
       <c r="G67" t="n">
         <v>7.25</v>
       </c>
       <c r="H67" t="n">
-        <v>7.294094831191025</v>
+        <v>6.690893763536291</v>
       </c>
       <c r="I67" t="n">
         <v>7.75</v>
       </c>
       <c r="J67" t="n">
-        <v>8.570427699807635</v>
+        <v>7.664329185935525</v>
       </c>
       <c r="K67" t="n">
         <v>5</v>
       </c>
       <c r="L67" t="n">
-        <v>3.574587927327503</v>
+        <v>4.171435852896809</v>
       </c>
     </row>
     <row r="68">
@@ -3008,37 +3008,37 @@
         <v>8.4</v>
       </c>
       <c r="B68" t="n">
-        <v>7.58895745266361</v>
+        <v>7.931627547110546</v>
       </c>
       <c r="C68" t="n">
         <v>8</v>
       </c>
       <c r="D68" t="n">
-        <v>7.774936506459553</v>
+        <v>7.568561329550297</v>
       </c>
       <c r="E68" t="n">
         <v>7.5</v>
       </c>
       <c r="F68" t="n">
-        <v>7.953621391860998</v>
+        <v>7.523102134454442</v>
       </c>
       <c r="G68" t="n">
         <v>7.5</v>
       </c>
       <c r="H68" t="n">
-        <v>8.612214435357915</v>
+        <v>8.190263956868531</v>
       </c>
       <c r="I68" t="n">
         <v>9.25</v>
       </c>
       <c r="J68" t="n">
-        <v>9.55328531470343</v>
+        <v>9.191808631416928</v>
       </c>
       <c r="K68" t="n">
         <v>4.6</v>
       </c>
       <c r="L68" t="n">
-        <v>4.677282713381986</v>
+        <v>5.049670494014557</v>
       </c>
     </row>
     <row r="69">
@@ -3046,37 +3046,37 @@
         <v>7.6</v>
       </c>
       <c r="B69" t="n">
-        <v>7.436945293577817</v>
+        <v>7.692943802956163</v>
       </c>
       <c r="C69" t="n">
         <v>8.25</v>
       </c>
       <c r="D69" t="n">
-        <v>7.833359799191403</v>
+        <v>7.520866095164318</v>
       </c>
       <c r="E69" t="n">
         <v>6</v>
       </c>
       <c r="F69" t="n">
-        <v>7.181371842039638</v>
+        <v>6.757681897425341</v>
       </c>
       <c r="G69" t="n">
         <v>7.75</v>
       </c>
       <c r="H69" t="n">
-        <v>8.534615252819711</v>
+        <v>8.068300383078807</v>
       </c>
       <c r="I69" t="n">
         <v>9.75</v>
       </c>
       <c r="J69" t="n">
-        <v>9.521242810344889</v>
+        <v>9.055581859603915</v>
       </c>
       <c r="K69" t="n">
         <v>7.2</v>
       </c>
       <c r="L69" t="n">
-        <v>7.659456456911205</v>
+        <v>7.760505721049757</v>
       </c>
     </row>
     <row r="70">
@@ -3084,37 +3084,37 @@
         <v>5.2</v>
       </c>
       <c r="B70" t="n">
-        <v>5.672489180646156</v>
+        <v>5.765374763990806</v>
       </c>
       <c r="C70" t="n">
         <v>6.75</v>
       </c>
       <c r="D70" t="n">
-        <v>6.748235210169027</v>
+        <v>6.30088875611222</v>
       </c>
       <c r="E70" t="n">
         <v>4.75</v>
       </c>
       <c r="F70" t="n">
-        <v>5.170099238620915</v>
+        <v>4.990984246775172</v>
       </c>
       <c r="G70" t="n">
         <v>6.75</v>
       </c>
       <c r="H70" t="n">
-        <v>7.778301774303371</v>
+        <v>7.24459546297923</v>
       </c>
       <c r="I70" t="n">
         <v>7.75</v>
       </c>
       <c r="J70" t="n">
-        <v>8.98372726397325</v>
+        <v>8.359441726668415</v>
       </c>
       <c r="K70" t="n">
         <v>6</v>
       </c>
       <c r="L70" t="n">
-        <v>5.283208754232212</v>
+        <v>5.647669953696015</v>
       </c>
     </row>
     <row r="71">
@@ -3122,37 +3122,37 @@
         <v>6.8</v>
       </c>
       <c r="B71" t="n">
-        <v>5.512671815396065</v>
+        <v>5.64803623825037</v>
       </c>
       <c r="C71" t="n">
         <v>7.5</v>
       </c>
       <c r="D71" t="n">
-        <v>7.309350201243755</v>
+        <v>7.019384420594616</v>
       </c>
       <c r="E71" t="n">
         <v>6.5</v>
       </c>
       <c r="F71" t="n">
-        <v>6.444164839308651</v>
+        <v>6.124231822890838</v>
       </c>
       <c r="G71" t="n">
         <v>7.25</v>
       </c>
       <c r="H71" t="n">
-        <v>7.80940231468221</v>
+        <v>7.311983730495761</v>
       </c>
       <c r="I71" t="n">
         <v>9</v>
       </c>
       <c r="J71" t="n">
-        <v>9.187349093463499</v>
+        <v>8.669448749586214</v>
       </c>
       <c r="K71" t="n">
         <v>5.2</v>
       </c>
       <c r="L71" t="n">
-        <v>3.084695054890396</v>
+        <v>3.720737448818002</v>
       </c>
     </row>
     <row r="72">
@@ -3160,37 +3160,37 @@
         <v>7.2</v>
       </c>
       <c r="B72" t="n">
-        <v>6.12918299594466</v>
+        <v>6.279594708464438</v>
       </c>
       <c r="C72" t="n">
         <v>7.25</v>
       </c>
       <c r="D72" t="n">
-        <v>7.520400124294886</v>
+        <v>7.165294090119476</v>
       </c>
       <c r="E72" t="n">
         <v>6.5</v>
       </c>
       <c r="F72" t="n">
-        <v>3.474569903811734</v>
+        <v>3.553416769686477</v>
       </c>
       <c r="G72" t="n">
         <v>7.75</v>
       </c>
       <c r="H72" t="n">
-        <v>7.004226486371328</v>
+        <v>6.341832070378574</v>
       </c>
       <c r="I72" t="n">
         <v>9.25</v>
       </c>
       <c r="J72" t="n">
-        <v>8.939406016135003</v>
+        <v>8.183773507369969</v>
       </c>
       <c r="K72" t="n">
         <v>4.2</v>
       </c>
       <c r="L72" t="n">
-        <v>5.056332654606861</v>
+        <v>5.445079429561712</v>
       </c>
     </row>
     <row r="73">
@@ -3198,37 +3198,37 @@
         <v>7</v>
       </c>
       <c r="B73" t="n">
-        <v>5.58600574128256</v>
+        <v>5.710582259247554</v>
       </c>
       <c r="C73" t="n">
         <v>7.75</v>
       </c>
       <c r="D73" t="n">
-        <v>7.378168926091082</v>
+        <v>7.08321106691417</v>
       </c>
       <c r="E73" t="n">
         <v>6</v>
       </c>
       <c r="F73" t="n">
-        <v>6.557038745876293</v>
+        <v>6.295332766630596</v>
       </c>
       <c r="G73" t="n">
         <v>7.5</v>
       </c>
       <c r="H73" t="n">
-        <v>7.835481269243981</v>
+        <v>7.306192995668157</v>
       </c>
       <c r="I73" t="n">
         <v>9.25</v>
       </c>
       <c r="J73" t="n">
-        <v>9.229974637512417</v>
+        <v>8.738162609667924</v>
       </c>
       <c r="K73" t="n">
         <v>5.4</v>
       </c>
       <c r="L73" t="n">
-        <v>2.536628205066276</v>
+        <v>3.187990498434883</v>
       </c>
     </row>
     <row r="74">
@@ -3236,37 +3236,37 @@
         <v>3.6</v>
       </c>
       <c r="B74" t="n">
-        <v>5.665957235588534</v>
+        <v>5.868687863838849</v>
       </c>
       <c r="C74" t="n">
         <v>7</v>
       </c>
       <c r="D74" t="n">
-        <v>7.006667188481909</v>
+        <v>6.705004701129085</v>
       </c>
       <c r="E74" t="n">
         <v>6</v>
       </c>
       <c r="F74" t="n">
-        <v>6.307432506306759</v>
+        <v>6.000161685728941</v>
       </c>
       <c r="G74" t="n">
         <v>5.75</v>
       </c>
       <c r="H74" t="n">
-        <v>7.450720203865523</v>
+        <v>6.878790757473238</v>
       </c>
       <c r="I74" t="n">
         <v>6.75</v>
       </c>
       <c r="J74" t="n">
-        <v>8.883356191905644</v>
+        <v>8.210932897963406</v>
       </c>
       <c r="K74" t="n">
         <v>4.4</v>
       </c>
       <c r="L74" t="n">
-        <v>3.554745493656499</v>
+        <v>4.159681446426799</v>
       </c>
     </row>
     <row r="75">
@@ -3274,37 +3274,37 @@
         <v>7.6</v>
       </c>
       <c r="B75" t="n">
-        <v>6.711248634359445</v>
+        <v>6.917551933030428</v>
       </c>
       <c r="C75" t="n">
         <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>8.029093730031413</v>
+        <v>7.803780740140088</v>
       </c>
       <c r="E75" t="n">
         <v>5.75</v>
       </c>
       <c r="F75" t="n">
-        <v>7.094658869859436</v>
+        <v>6.72600837175626</v>
       </c>
       <c r="G75" t="n">
         <v>7.25</v>
       </c>
       <c r="H75" t="n">
-        <v>8.308704255850184</v>
+        <v>7.887802048914647</v>
       </c>
       <c r="I75" t="n">
         <v>8.5</v>
       </c>
       <c r="J75" t="n">
-        <v>9.372039790767564</v>
+        <v>8.85489993923043</v>
       </c>
       <c r="K75" t="n">
         <v>6</v>
       </c>
       <c r="L75" t="n">
-        <v>6.514238480032017</v>
+        <v>6.742527718975804</v>
       </c>
     </row>
     <row r="76">
@@ -3312,37 +3312,37 @@
         <v>7.6</v>
       </c>
       <c r="B76" t="n">
-        <v>7.790091553577983</v>
+        <v>8.130437688858787</v>
       </c>
       <c r="C76" t="n">
         <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>8.379929357110193</v>
+        <v>8.278757019258951</v>
       </c>
       <c r="E76" t="n">
         <v>5.75</v>
       </c>
       <c r="F76" t="n">
-        <v>6.939441937193526</v>
+        <v>6.593737292137764</v>
       </c>
       <c r="G76" t="n">
         <v>7.25</v>
       </c>
       <c r="H76" t="n">
-        <v>8.169474887131878</v>
+        <v>7.639557400610945</v>
       </c>
       <c r="I76" t="n">
         <v>8.5</v>
       </c>
       <c r="J76" t="n">
-        <v>9.37477274927854</v>
+        <v>8.89820584243687</v>
       </c>
       <c r="K76" t="n">
         <v>6</v>
       </c>
       <c r="L76" t="n">
-        <v>5.928437066802593</v>
+        <v>6.163870838013365</v>
       </c>
     </row>
     <row r="77">
@@ -3350,37 +3350,37 @@
         <v>7</v>
       </c>
       <c r="B77" t="n">
-        <v>6.367232722284637</v>
+        <v>6.522469771757788</v>
       </c>
       <c r="C77" t="n">
         <v>8.5</v>
       </c>
       <c r="D77" t="n">
-        <v>7.754744472085484</v>
+        <v>7.477841891227474</v>
       </c>
       <c r="E77" t="n">
         <v>4.75</v>
       </c>
       <c r="F77" t="n">
-        <v>5.126043990461495</v>
+        <v>5.009949728732284</v>
       </c>
       <c r="G77" t="n">
         <v>8.25</v>
       </c>
       <c r="H77" t="n">
-        <v>7.371456399249191</v>
+        <v>6.767880632153656</v>
       </c>
       <c r="I77" t="n">
         <v>9.5</v>
       </c>
       <c r="J77" t="n">
-        <v>9.123249192225519</v>
+        <v>8.509734981955571</v>
       </c>
       <c r="K77" t="n">
         <v>4.8</v>
       </c>
       <c r="L77" t="n">
-        <v>5.248920941525307</v>
+        <v>5.561291361266413</v>
       </c>
     </row>
     <row r="78">
@@ -3388,37 +3388,37 @@
         <v>6.4</v>
       </c>
       <c r="B78" t="n">
-        <v>5.880558751513028</v>
+        <v>6.00992783081205</v>
       </c>
       <c r="C78" t="n">
         <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>7.032508183491847</v>
+        <v>6.673212774068098</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
       </c>
       <c r="F78" t="n">
-        <v>5.253913920556648</v>
+        <v>5.189659079518357</v>
       </c>
       <c r="G78" t="n">
         <v>6.25</v>
       </c>
       <c r="H78" t="n">
-        <v>7.250168411626405</v>
+        <v>6.643905004605791</v>
       </c>
       <c r="I78" t="n">
         <v>9</v>
       </c>
       <c r="J78" t="n">
-        <v>9.184348204659212</v>
+        <v>8.66452566859239</v>
       </c>
       <c r="K78" t="n">
         <v>4.8</v>
       </c>
       <c r="L78" t="n">
-        <v>3.999156264850513</v>
+        <v>4.518956968970077</v>
       </c>
     </row>
     <row r="79">
@@ -3426,37 +3426,37 @@
         <v>5.8</v>
       </c>
       <c r="B79" t="n">
-        <v>6.751048874338724</v>
+        <v>6.938982187592202</v>
       </c>
       <c r="C79" t="n">
         <v>7</v>
       </c>
       <c r="D79" t="n">
-        <v>7.837959004747278</v>
+        <v>7.538363579676941</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
       </c>
       <c r="F79" t="n">
-        <v>4.416480243661283</v>
+        <v>4.346512132529732</v>
       </c>
       <c r="G79" t="n">
         <v>7.5</v>
       </c>
       <c r="H79" t="n">
-        <v>7.431067854760646</v>
+        <v>6.836203107245723</v>
       </c>
       <c r="I79" t="n">
         <v>9.5</v>
       </c>
       <c r="J79" t="n">
-        <v>9.211176948723114</v>
+        <v>8.578365003594129</v>
       </c>
       <c r="K79" t="n">
         <v>6.2</v>
       </c>
       <c r="L79" t="n">
-        <v>6.238749051631316</v>
+        <v>6.49810040907505</v>
       </c>
     </row>
     <row r="80">
@@ -3464,37 +3464,37 @@
         <v>3.8</v>
       </c>
       <c r="B80" t="n">
-        <v>5.731062718484691</v>
+        <v>5.895067582304383</v>
       </c>
       <c r="C80" t="n">
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>7.735222707439708</v>
+        <v>7.50591909972717</v>
       </c>
       <c r="E80" t="n">
         <v>7.75</v>
       </c>
       <c r="F80" t="n">
-        <v>5.514165249748873</v>
+        <v>5.314968455235022</v>
       </c>
       <c r="G80" t="n">
         <v>8</v>
       </c>
       <c r="H80" t="n">
-        <v>7.749763909857326</v>
+        <v>7.273907370285601</v>
       </c>
       <c r="I80" t="n">
         <v>8.75</v>
       </c>
       <c r="J80" t="n">
-        <v>8.76876837491784</v>
+        <v>7.983901769166222</v>
       </c>
       <c r="K80" t="n">
         <v>6</v>
       </c>
       <c r="L80" t="n">
-        <v>3.923918470543075</v>
+        <v>4.472757383092161</v>
       </c>
     </row>
     <row r="81">
@@ -3502,37 +3502,37 @@
         <v>7</v>
       </c>
       <c r="B81" t="n">
-        <v>6.20281850402679</v>
+        <v>6.368368193206252</v>
       </c>
       <c r="C81" t="n">
         <v>8.75</v>
       </c>
       <c r="D81" t="n">
-        <v>7.455868498981909</v>
+        <v>7.148362725028191</v>
       </c>
       <c r="E81" t="n">
         <v>3.5</v>
       </c>
       <c r="F81" t="n">
-        <v>4.864489655875865</v>
+        <v>4.791841981775731</v>
       </c>
       <c r="G81" t="n">
         <v>6.75</v>
       </c>
       <c r="H81" t="n">
-        <v>7.793135695349164</v>
+        <v>7.327489978957558</v>
       </c>
       <c r="I81" t="n">
         <v>8.75</v>
       </c>
       <c r="J81" t="n">
-        <v>9.154387379558461</v>
+        <v>8.604119265246048</v>
       </c>
       <c r="K81" t="n">
         <v>5.6</v>
       </c>
       <c r="L81" t="n">
-        <v>5.300713591866386</v>
+        <v>5.705504881181742</v>
       </c>
     </row>
     <row r="82">
@@ -3540,37 +3540,37 @@
         <v>7.4</v>
       </c>
       <c r="B82" t="n">
-        <v>5.852074691027212</v>
+        <v>5.964046472361585</v>
       </c>
       <c r="C82" t="n">
         <v>8</v>
       </c>
       <c r="D82" t="n">
-        <v>7.445982957104117</v>
+        <v>7.214137795764558</v>
       </c>
       <c r="E82" t="n">
         <v>6.25</v>
       </c>
       <c r="F82" t="n">
-        <v>7.220741792430495</v>
+        <v>6.861196847152378</v>
       </c>
       <c r="G82" t="n">
         <v>9</v>
       </c>
       <c r="H82" t="n">
-        <v>8.231744523870095</v>
+        <v>7.781755072388487</v>
       </c>
       <c r="I82" t="n">
         <v>8.25</v>
       </c>
       <c r="J82" t="n">
-        <v>9.21023763885791</v>
+        <v>8.661898357220206</v>
       </c>
       <c r="K82" t="n">
         <v>5.4</v>
       </c>
       <c r="L82" t="n">
-        <v>5.209784827131229</v>
+        <v>5.629354256192752</v>
       </c>
     </row>
     <row r="83">
@@ -3578,37 +3578,37 @@
         <v>6.6</v>
       </c>
       <c r="B83" t="n">
-        <v>6.322344509869316</v>
+        <v>6.426258945261438</v>
       </c>
       <c r="C83" t="n">
         <v>8.5</v>
       </c>
       <c r="D83" t="n">
-        <v>8.482699947587426</v>
+        <v>8.361776476775759</v>
       </c>
       <c r="E83" t="n">
         <v>4.25</v>
       </c>
       <c r="F83" t="n">
-        <v>4.984546120497555</v>
+        <v>4.884210850584084</v>
       </c>
       <c r="G83" t="n">
         <v>6</v>
       </c>
       <c r="H83" t="n">
-        <v>7.271842902261761</v>
+        <v>6.623753181410347</v>
       </c>
       <c r="I83" t="n">
         <v>8.25</v>
       </c>
       <c r="J83" t="n">
-        <v>8.949355376362988</v>
+        <v>8.218271441853005</v>
       </c>
       <c r="K83" t="n">
         <v>5</v>
       </c>
       <c r="L83" t="n">
-        <v>5.189669592534393</v>
+        <v>5.470702567235556</v>
       </c>
     </row>
     <row r="84">
@@ -3616,37 +3616,37 @@
         <v>7.2</v>
       </c>
       <c r="B84" t="n">
-        <v>6.508203399109599</v>
+        <v>6.701021799274852</v>
       </c>
       <c r="C84" t="n">
         <v>8.75</v>
       </c>
       <c r="D84" t="n">
-        <v>7.792060514595322</v>
+        <v>7.530899524322582</v>
       </c>
       <c r="E84" t="n">
         <v>4.5</v>
       </c>
       <c r="F84" t="n">
-        <v>5.637069167079535</v>
+        <v>5.42187033731485</v>
       </c>
       <c r="G84" t="n">
         <v>7.25</v>
       </c>
       <c r="H84" t="n">
-        <v>7.702459512037665</v>
+        <v>7.106798702633823</v>
       </c>
       <c r="I84" t="n">
         <v>8.75</v>
       </c>
       <c r="J84" t="n">
-        <v>9.240178292571581</v>
+        <v>8.670613096444114</v>
       </c>
       <c r="K84" t="n">
         <v>4.8</v>
       </c>
       <c r="L84" t="n">
-        <v>4.865748012403944</v>
+        <v>5.215824521296605</v>
       </c>
     </row>
     <row r="85">
@@ -3654,37 +3654,37 @@
         <v>3.8</v>
       </c>
       <c r="B85" t="n">
-        <v>7.756005222331956</v>
+        <v>8.060597750004153</v>
       </c>
       <c r="C85" t="n">
         <v>6.5</v>
       </c>
       <c r="D85" t="n">
-        <v>8.473840154176536</v>
+        <v>8.392967859572156</v>
       </c>
       <c r="E85" t="n">
         <v>3.25</v>
       </c>
       <c r="F85" t="n">
-        <v>7.17358299303739</v>
+        <v>6.72276336103743</v>
       </c>
       <c r="G85" t="n">
         <v>6</v>
       </c>
       <c r="H85" t="n">
-        <v>8.098963672402006</v>
+        <v>7.519849490931819</v>
       </c>
       <c r="I85" t="n">
         <v>8</v>
       </c>
       <c r="J85" t="n">
-        <v>9.459612688612239</v>
+        <v>9.001373751221738</v>
       </c>
       <c r="K85" t="n">
         <v>4</v>
       </c>
       <c r="L85" t="n">
-        <v>6.38102506245011</v>
+        <v>6.605463238237519</v>
       </c>
     </row>
     <row r="86">
@@ -3692,37 +3692,37 @@
         <v>7.2</v>
       </c>
       <c r="B86" t="n">
-        <v>6.816293493646121</v>
+        <v>7.029349555518667</v>
       </c>
       <c r="C86" t="n">
         <v>8</v>
       </c>
       <c r="D86" t="n">
-        <v>8.537306310727086</v>
+        <v>8.390428191454156</v>
       </c>
       <c r="E86" t="n">
         <v>7.25</v>
       </c>
       <c r="F86" t="n">
-        <v>7.705653483790891</v>
+        <v>7.137352241486937</v>
       </c>
       <c r="G86" t="n">
         <v>6.75</v>
       </c>
       <c r="H86" t="n">
-        <v>7.958763628847191</v>
+        <v>7.415602031984129</v>
       </c>
       <c r="I86" t="n">
         <v>8.5</v>
       </c>
       <c r="J86" t="n">
-        <v>9.462116647163194</v>
+        <v>8.939171788051013</v>
       </c>
       <c r="K86" t="n">
         <v>7</v>
       </c>
       <c r="L86" t="n">
-        <v>6.107284847826271</v>
+        <v>6.401156811588935</v>
       </c>
     </row>
     <row r="87">
@@ -3730,37 +3730,37 @@
         <v>5</v>
       </c>
       <c r="B87" t="n">
-        <v>5.327621587332244</v>
+        <v>5.415538377036358</v>
       </c>
       <c r="C87" t="n">
         <v>6.5</v>
       </c>
       <c r="D87" t="n">
-        <v>6.767366838973889</v>
+        <v>6.335435702459531</v>
       </c>
       <c r="E87" t="n">
         <v>4.5</v>
       </c>
       <c r="F87" t="n">
-        <v>4.042196319592025</v>
+        <v>4.150105228319598</v>
       </c>
       <c r="G87" t="n">
         <v>7.5</v>
       </c>
       <c r="H87" t="n">
-        <v>7.180993407040435</v>
+        <v>6.585428304124652</v>
       </c>
       <c r="I87" t="n">
         <v>8.75</v>
       </c>
       <c r="J87" t="n">
-        <v>9.057123207401064</v>
+        <v>8.493011562697966</v>
       </c>
       <c r="K87" t="n">
         <v>5.6</v>
       </c>
       <c r="L87" t="n">
-        <v>4.61244449864805</v>
+        <v>5.106853551095488</v>
       </c>
     </row>
     <row r="88">
@@ -3768,37 +3768,37 @@
         <v>6.4</v>
       </c>
       <c r="B88" t="n">
-        <v>6.617196761012496</v>
+        <v>6.837605953618364</v>
       </c>
       <c r="C88" t="n">
         <v>6.75</v>
       </c>
       <c r="D88" t="n">
-        <v>8.269684791166378</v>
+        <v>8.118459038422493</v>
       </c>
       <c r="E88" t="n">
         <v>7.5</v>
       </c>
       <c r="F88" t="n">
-        <v>7.216771000789489</v>
+        <v>6.841832329346639</v>
       </c>
       <c r="G88" t="n">
         <v>7</v>
       </c>
       <c r="H88" t="n">
-        <v>8.125948596137913</v>
+        <v>7.665582041943772</v>
       </c>
       <c r="I88" t="n">
         <v>8.75</v>
       </c>
       <c r="J88" t="n">
-        <v>9.262525246696239</v>
+        <v>8.703979025593213</v>
       </c>
       <c r="K88" t="n">
         <v>5</v>
       </c>
       <c r="L88" t="n">
-        <v>5.310667013750979</v>
+        <v>5.67261161584309</v>
       </c>
     </row>
     <row r="89">
@@ -3806,37 +3806,37 @@
         <v>7</v>
       </c>
       <c r="B89" t="n">
-        <v>7.234686895044385</v>
+        <v>7.507122036896291</v>
       </c>
       <c r="C89" t="n">
         <v>4.5</v>
       </c>
       <c r="D89" t="n">
-        <v>7.763458055675303</v>
+        <v>7.49052152453701</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
       </c>
       <c r="F89" t="n">
-        <v>7.183416415176344</v>
+        <v>6.845709079300914</v>
       </c>
       <c r="G89" t="n">
         <v>7</v>
       </c>
       <c r="H89" t="n">
-        <v>7.839161724862569</v>
+        <v>7.303971381401819</v>
       </c>
       <c r="I89" t="n">
         <v>8</v>
       </c>
       <c r="J89" t="n">
-        <v>9.19299020966192</v>
+        <v>8.578877484636354</v>
       </c>
       <c r="K89" t="n">
         <v>6.6</v>
       </c>
       <c r="L89" t="n">
-        <v>6.029828927655535</v>
+        <v>6.331637196246342</v>
       </c>
     </row>
     <row r="90">
@@ -3844,37 +3844,37 @@
         <v>7</v>
       </c>
       <c r="B90" t="n">
-        <v>6.559495923046398</v>
+        <v>6.644772185727676</v>
       </c>
       <c r="C90" t="n">
         <v>6.75</v>
       </c>
       <c r="D90" t="n">
-        <v>8.007301256930463</v>
+        <v>7.693198678629654</v>
       </c>
       <c r="E90" t="n">
         <v>2</v>
       </c>
       <c r="F90" t="n">
-        <v>7.14913796484526</v>
+        <v>6.856194023400242</v>
       </c>
       <c r="G90" t="n">
         <v>6.5</v>
       </c>
       <c r="H90" t="n">
-        <v>8.201946430568968</v>
+        <v>7.759225837150504</v>
       </c>
       <c r="I90" t="n">
         <v>7</v>
       </c>
       <c r="J90" t="n">
-        <v>9.727838598027938</v>
+        <v>9.392079876785662</v>
       </c>
       <c r="K90" t="n">
         <v>5.6</v>
       </c>
       <c r="L90" t="n">
-        <v>6.284444988957485</v>
+        <v>6.51379121655566</v>
       </c>
     </row>
     <row r="91">
@@ -3882,37 +3882,37 @@
         <v>7.6</v>
       </c>
       <c r="B91" t="n">
-        <v>5.670900531925042</v>
+        <v>5.756910931217019</v>
       </c>
       <c r="C91" t="n">
         <v>7.5</v>
       </c>
       <c r="D91" t="n">
-        <v>7.091636738595861</v>
+        <v>6.700183935452544</v>
       </c>
       <c r="E91" t="n">
         <v>5.5</v>
       </c>
       <c r="F91" t="n">
-        <v>6.078591263880488</v>
+        <v>5.842943926099368</v>
       </c>
       <c r="G91" t="n">
         <v>7.25</v>
       </c>
       <c r="H91" t="n">
-        <v>7.61387914540238</v>
+        <v>7.022391285944448</v>
       </c>
       <c r="I91" t="n">
         <v>9.25</v>
       </c>
       <c r="J91" t="n">
-        <v>9.121937509737574</v>
+        <v>8.538848728930907</v>
       </c>
       <c r="K91" t="n">
         <v>5.8</v>
       </c>
       <c r="L91" t="n">
-        <v>4.839388824374593</v>
+        <v>5.231158707350263</v>
       </c>
     </row>
     <row r="92">
@@ -3920,37 +3920,37 @@
         <v>8</v>
       </c>
       <c r="B92" t="n">
-        <v>5.786067246107104</v>
+        <v>5.937631465883131</v>
       </c>
       <c r="C92" t="n">
         <v>6.5</v>
       </c>
       <c r="D92" t="n">
-        <v>6.340335860199417</v>
+        <v>5.825965240581765</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
       </c>
       <c r="F92" t="n">
-        <v>3.431699458124187</v>
+        <v>3.628591357266545</v>
       </c>
       <c r="G92" t="n">
         <v>7</v>
       </c>
       <c r="H92" t="n">
-        <v>7.034668587441145</v>
+        <v>6.394391796196907</v>
       </c>
       <c r="I92" t="n">
         <v>8.75</v>
       </c>
       <c r="J92" t="n">
-        <v>8.850288793537123</v>
+        <v>8.170944342234559</v>
       </c>
       <c r="K92" t="n">
         <v>4.8</v>
       </c>
       <c r="L92" t="n">
-        <v>5.984717129102098</v>
+        <v>6.277918492330324</v>
       </c>
     </row>
     <row r="93">
@@ -3958,37 +3958,37 @@
         <v>7.2</v>
       </c>
       <c r="B93" t="n">
-        <v>6.922491421626836</v>
+        <v>7.210546226094898</v>
       </c>
       <c r="C93" t="n">
         <v>8.25</v>
       </c>
       <c r="D93" t="n">
-        <v>8.105679137772063</v>
+        <v>7.904790964910661</v>
       </c>
       <c r="E93" t="n">
         <v>7.25</v>
       </c>
       <c r="F93" t="n">
-        <v>7.728560324008696</v>
+        <v>7.367520642876334</v>
       </c>
       <c r="G93" t="n">
         <v>6.5</v>
       </c>
       <c r="H93" t="n">
-        <v>8.177268309150021</v>
+        <v>7.725522909083807</v>
       </c>
       <c r="I93" t="n">
         <v>8.25</v>
       </c>
       <c r="J93" t="n">
-        <v>9.268020948949678</v>
+        <v>8.732825581678892</v>
       </c>
       <c r="K93" t="n">
         <v>3.2</v>
       </c>
       <c r="L93" t="n">
-        <v>5.306238794678338</v>
+        <v>5.715607906349417</v>
       </c>
     </row>
     <row r="94">
@@ -3996,37 +3996,37 @@
         <v>7.8</v>
       </c>
       <c r="B94" t="n">
-        <v>7.070036008144717</v>
+        <v>7.326738301444178</v>
       </c>
       <c r="C94" t="n">
         <v>8.5</v>
       </c>
       <c r="D94" t="n">
-        <v>8.042292278438683</v>
+        <v>7.853631832652222</v>
       </c>
       <c r="E94" t="n">
         <v>8.75</v>
       </c>
       <c r="F94" t="n">
-        <v>7.6110943729171</v>
+        <v>7.184869558078606</v>
       </c>
       <c r="G94" t="n">
         <v>8.5</v>
       </c>
       <c r="H94" t="n">
-        <v>8.351069483377325</v>
+        <v>7.897586063224514</v>
       </c>
       <c r="I94" t="n">
         <v>9.75</v>
       </c>
       <c r="J94" t="n">
-        <v>9.621664395303707</v>
+        <v>9.265494956670441</v>
       </c>
       <c r="K94" t="n">
         <v>7</v>
       </c>
       <c r="L94" t="n">
-        <v>5.839222504031844</v>
+        <v>6.18824277948737</v>
       </c>
     </row>
     <row r="95">
@@ -4034,37 +4034,37 @@
         <v>5.4</v>
       </c>
       <c r="B95" t="n">
-        <v>6.693787412518505</v>
+        <v>6.85667907640524</v>
       </c>
       <c r="C95" t="n">
         <v>7.75</v>
       </c>
       <c r="D95" t="n">
-        <v>8.161468087645751</v>
+        <v>8.014437157136506</v>
       </c>
       <c r="E95" t="n">
         <v>6.75</v>
       </c>
       <c r="F95" t="n">
-        <v>6.645993926838804</v>
+        <v>6.321281120480137</v>
       </c>
       <c r="G95" t="n">
         <v>7.75</v>
       </c>
       <c r="H95" t="n">
-        <v>7.779300676152728</v>
+        <v>7.226080408957529</v>
       </c>
       <c r="I95" t="n">
         <v>8.75</v>
       </c>
       <c r="J95" t="n">
-        <v>9.370447550685457</v>
+        <v>8.834556291331117</v>
       </c>
       <c r="K95" t="n">
         <v>7.2</v>
       </c>
       <c r="L95" t="n">
-        <v>5.664933390218642</v>
+        <v>5.959955819196418</v>
       </c>
     </row>
     <row r="96">
@@ -4072,37 +4072,37 @@
         <v>6.8</v>
       </c>
       <c r="B96" t="n">
-        <v>5.403574204828939</v>
+        <v>5.463545041123488</v>
       </c>
       <c r="C96" t="n">
         <v>5.75</v>
       </c>
       <c r="D96" t="n">
-        <v>7.034603338826918</v>
+        <v>6.671708386976707</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
       </c>
       <c r="F96" t="n">
-        <v>6.911865461018917</v>
+        <v>6.559669704378654</v>
       </c>
       <c r="G96" t="n">
         <v>8.5</v>
       </c>
       <c r="H96" t="n">
-        <v>7.919599735577997</v>
+        <v>7.454533135943345</v>
       </c>
       <c r="I96" t="n">
         <v>8.25</v>
       </c>
       <c r="J96" t="n">
-        <v>9.062354385399564</v>
+        <v>8.430875277299183</v>
       </c>
       <c r="K96" t="n">
         <v>4.2</v>
       </c>
       <c r="L96" t="n">
-        <v>4.752627543284955</v>
+        <v>5.227892570712509</v>
       </c>
     </row>
     <row r="97">
@@ -4110,37 +4110,37 @@
         <v>6.4</v>
       </c>
       <c r="B97" t="n">
-        <v>5.711320910019534</v>
+        <v>5.856224496984763</v>
       </c>
       <c r="C97" t="n">
         <v>5.25</v>
       </c>
       <c r="D97" t="n">
-        <v>6.227789216170421</v>
+        <v>5.687466598459111</v>
       </c>
       <c r="E97" t="n">
         <v>8.5</v>
       </c>
       <c r="F97" t="n">
-        <v>6.622013074927616</v>
+        <v>6.281061229113609</v>
       </c>
       <c r="G97" t="n">
         <v>8.25</v>
       </c>
       <c r="H97" t="n">
-        <v>7.502834876916387</v>
+        <v>6.916947391852363</v>
       </c>
       <c r="I97" t="n">
         <v>7.75</v>
       </c>
       <c r="J97" t="n">
-        <v>8.955565694542575</v>
+        <v>8.316835359852643</v>
       </c>
       <c r="K97" t="n">
         <v>4.4</v>
       </c>
       <c r="L97" t="n">
-        <v>5.187608402688929</v>
+        <v>5.612754494122106</v>
       </c>
     </row>
     <row r="98">
@@ -4148,37 +4148,37 @@
         <v>5.6</v>
       </c>
       <c r="B98" t="n">
-        <v>6.044741825776924</v>
+        <v>6.111170756364042</v>
       </c>
       <c r="C98" t="n">
         <v>6.5</v>
       </c>
       <c r="D98" t="n">
-        <v>7.465347916539287</v>
+        <v>7.078210167215716</v>
       </c>
       <c r="E98" t="n">
         <v>6.75</v>
       </c>
       <c r="F98" t="n">
-        <v>7.441851822699563</v>
+        <v>7.067198948086029</v>
       </c>
       <c r="G98" t="n">
         <v>7.25</v>
       </c>
       <c r="H98" t="n">
-        <v>8.079299963308475</v>
+        <v>7.616761970653926</v>
       </c>
       <c r="I98" t="n">
         <v>8</v>
       </c>
       <c r="J98" t="n">
-        <v>9.199618837834512</v>
+        <v>8.590241978229828</v>
       </c>
       <c r="K98" t="n">
         <v>4.8</v>
       </c>
       <c r="L98" t="n">
-        <v>5.430709449617003</v>
+        <v>5.776449601376738</v>
       </c>
     </row>
     <row r="99">
@@ -4186,37 +4186,37 @@
         <v>5.2</v>
       </c>
       <c r="B99" t="n">
-        <v>6.300692055675817</v>
+        <v>6.437361289332124</v>
       </c>
       <c r="C99" t="n">
         <v>7.5</v>
       </c>
       <c r="D99" t="n">
-        <v>7.819517781173032</v>
+        <v>7.525971920431818</v>
       </c>
       <c r="E99" t="n">
         <v>6.25</v>
       </c>
       <c r="F99" t="n">
-        <v>4.746142821991075</v>
+        <v>4.682745219205605</v>
       </c>
       <c r="G99" t="n">
         <v>7.25</v>
       </c>
       <c r="H99" t="n">
-        <v>7.231264389740953</v>
+        <v>6.615301061917774</v>
       </c>
       <c r="I99" t="n">
         <v>8</v>
       </c>
       <c r="J99" t="n">
-        <v>9.202288868690269</v>
+        <v>8.601127903879872</v>
       </c>
       <c r="K99" t="n">
         <v>4.4</v>
       </c>
       <c r="L99" t="n">
-        <v>5.779286108212495</v>
+        <v>6.099919354953492</v>
       </c>
     </row>
     <row r="100">
@@ -4224,37 +4224,37 @@
         <v>5.2</v>
       </c>
       <c r="B100" t="n">
-        <v>5.067372999715302</v>
+        <v>5.075641977145287</v>
       </c>
       <c r="C100" t="n">
         <v>7</v>
       </c>
       <c r="D100" t="n">
-        <v>7.471420119556164</v>
+        <v>7.132318199728466</v>
       </c>
       <c r="E100" t="n">
         <v>3.75</v>
       </c>
       <c r="F100" t="n">
-        <v>4.652533745049514</v>
+        <v>4.528569742741965</v>
       </c>
       <c r="G100" t="n">
         <v>7.25</v>
       </c>
       <c r="H100" t="n">
-        <v>7.45446326024144</v>
+        <v>6.836239715841986</v>
       </c>
       <c r="I100" t="n">
         <v>8.25</v>
       </c>
       <c r="J100" t="n">
-        <v>9.083144219756301</v>
+        <v>8.440813827699124</v>
       </c>
       <c r="K100" t="n">
         <v>3.6</v>
       </c>
       <c r="L100" t="n">
-        <v>3.274152495722293</v>
+        <v>3.806728437259407</v>
       </c>
     </row>
     <row r="101">
@@ -4262,37 +4262,37 @@
         <v>7.4</v>
       </c>
       <c r="B101" t="n">
-        <v>6.409253667860813</v>
+        <v>6.72033251159758</v>
       </c>
       <c r="C101" t="n">
         <v>7.5</v>
       </c>
       <c r="D101" t="n">
-        <v>7.62152820806278</v>
+        <v>7.377731804834335</v>
       </c>
       <c r="E101" t="n">
         <v>6.75</v>
       </c>
       <c r="F101" t="n">
-        <v>6.26268894333405</v>
+        <v>6.033095262320947</v>
       </c>
       <c r="G101" t="n">
         <v>6.5</v>
       </c>
       <c r="H101" t="n">
-        <v>7.692823346867267</v>
+        <v>7.223330621226143</v>
       </c>
       <c r="I101" t="n">
         <v>9</v>
       </c>
       <c r="J101" t="n">
-        <v>8.898770264632564</v>
+        <v>8.226652455256286</v>
       </c>
       <c r="K101" t="n">
         <v>3.8</v>
       </c>
       <c r="L101" t="n">
-        <v>3.921988561640303</v>
+        <v>4.531673404205047</v>
       </c>
     </row>
     <row r="102">
@@ -4300,37 +4300,37 @@
         <v>6</v>
       </c>
       <c r="B102" t="n">
-        <v>6.428828700257726</v>
+        <v>6.53555692045212</v>
       </c>
       <c r="C102" t="n">
         <v>9</v>
       </c>
       <c r="D102" t="n">
-        <v>7.777335003492921</v>
+        <v>7.550376921289689</v>
       </c>
       <c r="E102" t="n">
         <v>5.25</v>
       </c>
       <c r="F102" t="n">
-        <v>5.984433850780175</v>
+        <v>5.692592768749085</v>
       </c>
       <c r="G102" t="n">
         <v>7</v>
       </c>
       <c r="H102" t="n">
-        <v>8.029033263683454</v>
+        <v>7.476103947241803</v>
       </c>
       <c r="I102" t="n">
         <v>9</v>
       </c>
       <c r="J102" t="n">
-        <v>9.298293687039559</v>
+        <v>8.750309762277908</v>
       </c>
       <c r="K102" t="n">
         <v>5.6</v>
       </c>
       <c r="L102" t="n">
-        <v>6.478352662992962</v>
+        <v>6.712379553438675</v>
       </c>
     </row>
     <row r="103">
@@ -4338,37 +4338,37 @@
         <v>6.8</v>
       </c>
       <c r="B103" t="n">
-        <v>7.459636720890097</v>
+        <v>7.744365819147214</v>
       </c>
       <c r="C103" t="n">
         <v>5.75</v>
       </c>
       <c r="D103" t="n">
-        <v>8.203319843334477</v>
+        <v>8.053938822010771</v>
       </c>
       <c r="E103" t="n">
         <v>5.5</v>
       </c>
       <c r="F103" t="n">
-        <v>8.480958940641953</v>
+        <v>7.939651656249074</v>
       </c>
       <c r="G103" t="n">
         <v>6.25</v>
       </c>
       <c r="H103" t="n">
-        <v>8.437897542888603</v>
+        <v>7.957997011515635</v>
       </c>
       <c r="I103" t="n">
         <v>7.75</v>
       </c>
       <c r="J103" t="n">
-        <v>9.461725239308372</v>
+        <v>9.021165348977201</v>
       </c>
       <c r="K103" t="n">
         <v>4.4</v>
       </c>
       <c r="L103" t="n">
-        <v>6.794096949880049</v>
+        <v>7.01839961055636</v>
       </c>
     </row>
     <row r="104">
@@ -4376,37 +4376,37 @@
         <v>7.8</v>
       </c>
       <c r="B104" t="n">
-        <v>6.4662560850262</v>
+        <v>6.676978992002636</v>
       </c>
       <c r="C104" t="n">
         <v>7.5</v>
       </c>
       <c r="D104" t="n">
-        <v>7.696138333407376</v>
+        <v>7.429744657899809</v>
       </c>
       <c r="E104" t="n">
         <v>6</v>
       </c>
       <c r="F104" t="n">
-        <v>6.806963482515989</v>
+        <v>6.558007542912211</v>
       </c>
       <c r="G104" t="n">
         <v>8</v>
       </c>
       <c r="H104" t="n">
-        <v>7.970002748532813</v>
+        <v>7.467482062468738</v>
       </c>
       <c r="I104" t="n">
         <v>8.75</v>
       </c>
       <c r="J104" t="n">
-        <v>9.46030480694939</v>
+        <v>9.039257919121409</v>
       </c>
       <c r="K104" t="n">
         <v>4.8</v>
       </c>
       <c r="L104" t="n">
-        <v>4.121257439397362</v>
+        <v>4.550406083685419</v>
       </c>
     </row>
     <row r="105">
@@ -4414,37 +4414,37 @@
         <v>7</v>
       </c>
       <c r="B105" t="n">
-        <v>7.091029574201732</v>
+        <v>7.243653258176868</v>
       </c>
       <c r="C105" t="n">
         <v>7.5</v>
       </c>
       <c r="D105" t="n">
-        <v>8.45269400206003</v>
+        <v>8.282321850595139</v>
       </c>
       <c r="E105" t="n">
         <v>6.25</v>
       </c>
       <c r="F105" t="n">
-        <v>7.190261073347251</v>
+        <v>6.864310833528899</v>
       </c>
       <c r="G105" t="n">
         <v>6.75</v>
       </c>
       <c r="H105" t="n">
-        <v>8.415386189186265</v>
+        <v>7.984430216491223</v>
       </c>
       <c r="I105" t="n">
         <v>8</v>
       </c>
       <c r="J105" t="n">
-        <v>9.66052194631183</v>
+        <v>9.274681032415868</v>
       </c>
       <c r="K105" t="n">
         <v>4.4</v>
       </c>
       <c r="L105" t="n">
-        <v>7.29895297510004</v>
+        <v>7.433948258451492</v>
       </c>
     </row>
     <row r="106">
@@ -4452,37 +4452,37 @@
         <v>7.6</v>
       </c>
       <c r="B106" t="n">
-        <v>6.040845923340426</v>
+        <v>6.190088905266829</v>
       </c>
       <c r="C106" t="n">
         <v>9</v>
       </c>
       <c r="D106" t="n">
-        <v>7.124067620230761</v>
+        <v>6.715766150450477</v>
       </c>
       <c r="E106" t="n">
         <v>8.75</v>
       </c>
       <c r="F106" t="n">
-        <v>4.314951265030558</v>
+        <v>4.330712615353056</v>
       </c>
       <c r="G106" t="n">
         <v>8.25</v>
       </c>
       <c r="H106" t="n">
-        <v>6.960682413242768</v>
+        <v>6.30399722495039</v>
       </c>
       <c r="I106" t="n">
         <v>9</v>
       </c>
       <c r="J106" t="n">
-        <v>8.757170121999337</v>
+        <v>7.968065452854502</v>
       </c>
       <c r="K106" t="n">
         <v>5.8</v>
       </c>
       <c r="L106" t="n">
-        <v>4.826558603688087</v>
+        <v>5.162090102243124</v>
       </c>
     </row>
     <row r="107">
@@ -4490,37 +4490,37 @@
         <v>6.2</v>
       </c>
       <c r="B107" t="n">
-        <v>7.533165274501459</v>
+        <v>7.827022405837606</v>
       </c>
       <c r="C107" t="n">
         <v>8</v>
       </c>
       <c r="D107" t="n">
-        <v>8.103554871002629</v>
+        <v>7.934398635952802</v>
       </c>
       <c r="E107" t="n">
         <v>6.75</v>
       </c>
       <c r="F107" t="n">
-        <v>8.003949319955092</v>
+        <v>7.50935708654699</v>
       </c>
       <c r="G107" t="n">
         <v>7.5</v>
       </c>
       <c r="H107" t="n">
-        <v>8.392318400992938</v>
+        <v>7.93473657665923</v>
       </c>
       <c r="I107" t="n">
         <v>9</v>
       </c>
       <c r="J107" t="n">
-        <v>9.42041125612046</v>
+        <v>8.959202034002216</v>
       </c>
       <c r="K107" t="n">
         <v>5.2</v>
       </c>
       <c r="L107" t="n">
-        <v>7.037627163974925</v>
+        <v>7.23949891443972</v>
       </c>
     </row>
     <row r="108">
@@ -4528,37 +4528,37 @@
         <v>5.4</v>
       </c>
       <c r="B108" t="n">
-        <v>5.519099550818265</v>
+        <v>5.603891236784354</v>
       </c>
       <c r="C108" t="n">
         <v>7.83</v>
       </c>
       <c r="D108" t="n">
-        <v>6.897235850765208</v>
+        <v>6.513919267924312</v>
       </c>
       <c r="E108" t="n">
         <v>8.5</v>
       </c>
       <c r="F108" t="n">
-        <v>6.199985695431467</v>
+        <v>5.956875684007635</v>
       </c>
       <c r="G108" t="n">
         <v>7.25</v>
       </c>
       <c r="H108" t="n">
-        <v>8.061448683674266</v>
+        <v>7.599950967344336</v>
       </c>
       <c r="I108" t="n">
         <v>9.5</v>
       </c>
       <c r="J108" t="n">
-        <v>9.292985217963034</v>
+        <v>8.803092471039253</v>
       </c>
       <c r="K108" t="n">
         <v>5.4</v>
       </c>
       <c r="L108" t="n">
-        <v>4.452370932409626</v>
+        <v>4.946215194152242</v>
       </c>
     </row>
     <row r="109">
@@ -4566,37 +4566,37 @@
         <v>6.8</v>
       </c>
       <c r="B109" t="n">
-        <v>5.628253673087762</v>
+        <v>5.795260158529097</v>
       </c>
       <c r="C109" t="n">
         <v>7.5</v>
       </c>
       <c r="D109" t="n">
-        <v>6.978459252903094</v>
+        <v>6.590850346962491</v>
       </c>
       <c r="E109" t="n">
         <v>5</v>
       </c>
       <c r="F109" t="n">
-        <v>6.416461357114932</v>
+        <v>6.16635738262177</v>
       </c>
       <c r="G109" t="n">
         <v>8</v>
       </c>
       <c r="H109" t="n">
-        <v>7.288009267867885</v>
+        <v>6.685584184133613</v>
       </c>
       <c r="I109" t="n">
         <v>8</v>
       </c>
       <c r="J109" t="n">
-        <v>8.647764296742404</v>
+        <v>7.819682286335421</v>
       </c>
       <c r="K109" t="n">
         <v>4.8</v>
       </c>
       <c r="L109" t="n">
-        <v>3.309466694349446</v>
+        <v>3.918914455071296</v>
       </c>
     </row>
     <row r="110">
@@ -4604,37 +4604,37 @@
         <v>6.8</v>
       </c>
       <c r="B110" t="n">
-        <v>6.642717277300782</v>
+        <v>6.817711979491221</v>
       </c>
       <c r="C110" t="n">
         <v>7</v>
       </c>
       <c r="D110" t="n">
-        <v>7.944312828541797</v>
+        <v>7.683525945654899</v>
       </c>
       <c r="E110" t="n">
         <v>6.25</v>
       </c>
       <c r="F110" t="n">
-        <v>6.553545728807986</v>
+        <v>6.326195263973451</v>
       </c>
       <c r="G110" t="n">
         <v>7.5</v>
       </c>
       <c r="H110" t="n">
-        <v>7.870243387609086</v>
+        <v>7.347559203821914</v>
       </c>
       <c r="I110" t="n">
         <v>9.25</v>
       </c>
       <c r="J110" t="n">
-        <v>9.543415580501085</v>
+        <v>9.13799030449259</v>
       </c>
       <c r="K110" t="n">
         <v>4.4</v>
       </c>
       <c r="L110" t="n">
-        <v>4.55825922633137</v>
+        <v>4.924052232261985</v>
       </c>
     </row>
     <row r="111">
@@ -4642,37 +4642,37 @@
         <v>5.4</v>
       </c>
       <c r="B111" t="n">
-        <v>5.404566339104333</v>
+        <v>5.488178277354981</v>
       </c>
       <c r="C111" t="n">
         <v>5</v>
       </c>
       <c r="D111" t="n">
-        <v>7.072317688523052</v>
+        <v>6.660936305203281</v>
       </c>
       <c r="E111" t="n">
         <v>3.75</v>
       </c>
       <c r="F111" t="n">
-        <v>5.800758318360914</v>
+        <v>5.558301502865456</v>
       </c>
       <c r="G111" t="n">
         <v>6.5</v>
       </c>
       <c r="H111" t="n">
-        <v>7.060197873582282</v>
+        <v>6.35983460823036</v>
       </c>
       <c r="I111" t="n">
         <v>7.25</v>
       </c>
       <c r="J111" t="n">
-        <v>8.4082790489374</v>
+        <v>7.393367227170341</v>
       </c>
       <c r="K111" t="n">
         <v>3.4</v>
       </c>
       <c r="L111" t="n">
-        <v>2.475112999221741</v>
+        <v>3.11254958737385</v>
       </c>
     </row>
     <row r="112">
@@ -4680,37 +4680,37 @@
         <v>5.2</v>
       </c>
       <c r="B112" t="n">
-        <v>7.326715286856035</v>
+        <v>7.617825824482609</v>
       </c>
       <c r="C112" t="n">
         <v>5.25</v>
       </c>
       <c r="D112" t="n">
-        <v>8.04869752172856</v>
+        <v>7.90157383081347</v>
       </c>
       <c r="E112" t="n">
         <v>6.75</v>
       </c>
       <c r="F112" t="n">
-        <v>7.122864237084057</v>
+        <v>6.827934946779516</v>
       </c>
       <c r="G112" t="n">
         <v>6</v>
       </c>
       <c r="H112" t="n">
-        <v>8.23514284518882</v>
+        <v>7.75117302857743</v>
       </c>
       <c r="I112" t="n">
         <v>8.75</v>
       </c>
       <c r="J112" t="n">
-        <v>9.476188047525991</v>
+        <v>9.077656245791674</v>
       </c>
       <c r="K112" t="n">
         <v>5</v>
       </c>
       <c r="L112" t="n">
-        <v>6.053225711498435</v>
+        <v>6.315769487968465</v>
       </c>
     </row>
     <row r="113">
@@ -4718,37 +4718,37 @@
         <v>6.6</v>
       </c>
       <c r="B113" t="n">
-        <v>6.961191083557769</v>
+        <v>7.133001443121981</v>
       </c>
       <c r="C113" t="n">
         <v>7.75</v>
       </c>
       <c r="D113" t="n">
-        <v>7.646543042650316</v>
+        <v>7.349578713372472</v>
       </c>
       <c r="E113" t="n">
         <v>6.5</v>
       </c>
       <c r="F113" t="n">
-        <v>6.227974581311533</v>
+        <v>5.98112291929036</v>
       </c>
       <c r="G113" t="n">
         <v>7.5</v>
       </c>
       <c r="H113" t="n">
-        <v>7.983065229144938</v>
+        <v>7.437373096266398</v>
       </c>
       <c r="I113" t="n">
         <v>9</v>
       </c>
       <c r="J113" t="n">
-        <v>9.439415076357973</v>
+        <v>8.961523994528335</v>
       </c>
       <c r="K113" t="n">
         <v>7.4</v>
       </c>
       <c r="L113" t="n">
-        <v>7.316329393294092</v>
+        <v>7.44919195757179</v>
       </c>
     </row>
     <row r="114">
@@ -4756,37 +4756,37 @@
         <v>6.4</v>
       </c>
       <c r="B114" t="n">
-        <v>7.384437353495363</v>
+        <v>7.600798057652685</v>
       </c>
       <c r="C114" t="n">
         <v>6.25</v>
       </c>
       <c r="D114" t="n">
-        <v>8.85398094528407</v>
+        <v>8.739971613441913</v>
       </c>
       <c r="E114" t="n">
         <v>4.5</v>
       </c>
       <c r="F114" t="n">
-        <v>6.732526079164253</v>
+        <v>6.323068396136879</v>
       </c>
       <c r="G114" t="n">
         <v>7.25</v>
       </c>
       <c r="H114" t="n">
-        <v>7.964019696834534</v>
+        <v>7.347722637990456</v>
       </c>
       <c r="I114" t="n">
         <v>8.25</v>
       </c>
       <c r="J114" t="n">
-        <v>9.563125496519365</v>
+        <v>9.118580756085716</v>
       </c>
       <c r="K114" t="n">
         <v>4.8</v>
       </c>
       <c r="L114" t="n">
-        <v>7.183741457009412</v>
+        <v>7.300248457997697</v>
       </c>
     </row>
     <row r="115">
@@ -4794,37 +4794,37 @@
         <v>5.4</v>
       </c>
       <c r="B115" t="n">
-        <v>5.655076110443571</v>
+        <v>5.773438531850599</v>
       </c>
       <c r="C115" t="n">
         <v>8</v>
       </c>
       <c r="D115" t="n">
-        <v>7.339586761213959</v>
+        <v>7.043962214730132</v>
       </c>
       <c r="E115" t="n">
         <v>3.25</v>
       </c>
       <c r="F115" t="n">
-        <v>4.58864383284556</v>
+        <v>4.521209275363109</v>
       </c>
       <c r="G115" t="n">
         <v>6</v>
       </c>
       <c r="H115" t="n">
-        <v>7.177224917675289</v>
+        <v>6.529283883533444</v>
       </c>
       <c r="I115" t="n">
         <v>7.25</v>
       </c>
       <c r="J115" t="n">
-        <v>9.107902922030755</v>
+        <v>8.540213444762717</v>
       </c>
       <c r="K115" t="n">
         <v>3.2</v>
       </c>
       <c r="L115" t="n">
-        <v>4.146444172538012</v>
+        <v>4.566997617859531</v>
       </c>
     </row>
     <row r="116">
@@ -4832,37 +4832,37 @@
         <v>6.8</v>
       </c>
       <c r="B116" t="n">
-        <v>6.301854236361732</v>
+        <v>6.498093195122</v>
       </c>
       <c r="C116" t="n">
         <v>7.5</v>
       </c>
       <c r="D116" t="n">
-        <v>7.789958077744792</v>
+        <v>7.561412339235416</v>
       </c>
       <c r="E116" t="n">
         <v>5.25</v>
       </c>
       <c r="F116" t="n">
-        <v>6.565651300073537</v>
+        <v>6.265043092566255</v>
       </c>
       <c r="G116" t="n">
         <v>6.25</v>
       </c>
       <c r="H116" t="n">
-        <v>7.472982327722329</v>
+        <v>6.893977199815201</v>
       </c>
       <c r="I116" t="n">
         <v>8.25</v>
       </c>
       <c r="J116" t="n">
-        <v>9.064761832137943</v>
+        <v>8.390813807310312</v>
       </c>
       <c r="K116" t="n">
         <v>4.8</v>
       </c>
       <c r="L116" t="n">
-        <v>4.679817525754896</v>
+        <v>5.149774862079376</v>
       </c>
     </row>
     <row r="117">
@@ -4870,37 +4870,37 @@
         <v>7.2</v>
       </c>
       <c r="B117" t="n">
-        <v>5.643570909755368</v>
+        <v>5.740151695432448</v>
       </c>
       <c r="C117" t="n">
         <v>6.25</v>
       </c>
       <c r="D117" t="n">
-        <v>7.337278113229386</v>
+        <v>7.059606590739075</v>
       </c>
       <c r="E117" t="n">
         <v>4.25</v>
       </c>
       <c r="F117" t="n">
-        <v>4.843850139253123</v>
+        <v>4.849692910734428</v>
       </c>
       <c r="G117" t="n">
         <v>5.75</v>
       </c>
       <c r="H117" t="n">
-        <v>6.936082112396577</v>
+        <v>6.283405136768283</v>
       </c>
       <c r="I117" t="n">
         <v>8.75</v>
       </c>
       <c r="J117" t="n">
-        <v>9.08438120029601</v>
+        <v>8.538621092994816</v>
       </c>
       <c r="K117" t="n">
         <v>4.6</v>
       </c>
       <c r="L117" t="n">
-        <v>3.678527253558411</v>
+        <v>4.206367571571431</v>
       </c>
     </row>
     <row r="118">
@@ -4908,37 +4908,37 @@
         <v>2.8</v>
       </c>
       <c r="B118" t="n">
-        <v>4.915014581547982</v>
+        <v>4.916084075673623</v>
       </c>
       <c r="C118" t="n">
         <v>6.25</v>
       </c>
       <c r="D118" t="n">
-        <v>7.346296807466425</v>
+        <v>7.026016071806068</v>
       </c>
       <c r="E118" t="n">
         <v>4.75</v>
       </c>
       <c r="F118" t="n">
-        <v>3.753526509040463</v>
+        <v>3.752600893041214</v>
       </c>
       <c r="G118" t="n">
         <v>5.75</v>
       </c>
       <c r="H118" t="n">
-        <v>6.696512241949644</v>
+        <v>5.949397614344861</v>
       </c>
       <c r="I118" t="n">
         <v>6.75</v>
       </c>
       <c r="J118" t="n">
-        <v>8.556701886498885</v>
+        <v>7.668740201227633</v>
       </c>
       <c r="K118" t="n">
         <v>3</v>
       </c>
       <c r="L118" t="n">
-        <v>3.066452743254606</v>
+        <v>3.682394736719139</v>
       </c>
     </row>
     <row r="119">
@@ -4946,37 +4946,37 @@
         <v>7.6</v>
       </c>
       <c r="B119" t="n">
-        <v>6.638569312085568</v>
+        <v>6.844786681237927</v>
       </c>
       <c r="C119" t="n">
         <v>8.75</v>
       </c>
       <c r="D119" t="n">
-        <v>7.872028223360319</v>
+        <v>7.618695545080655</v>
       </c>
       <c r="E119" t="n">
         <v>6</v>
       </c>
       <c r="F119" t="n">
-        <v>7.378922926612035</v>
+        <v>7.02170633186164</v>
       </c>
       <c r="G119" t="n">
         <v>8.5</v>
       </c>
       <c r="H119" t="n">
-        <v>8.367451180748393</v>
+        <v>7.97470771592252</v>
       </c>
       <c r="I119" t="n">
         <v>8</v>
       </c>
       <c r="J119" t="n">
-        <v>9.514070752120752</v>
+        <v>9.142018800207822</v>
       </c>
       <c r="K119" t="n">
         <v>6</v>
       </c>
       <c r="L119" t="n">
-        <v>5.746742361662548</v>
+        <v>6.104567309369932</v>
       </c>
     </row>
     <row r="120">
@@ -4984,37 +4984,37 @@
         <v>5</v>
       </c>
       <c r="B120" t="n">
-        <v>5.327349812213956</v>
+        <v>5.39659838674541</v>
       </c>
       <c r="C120" t="n">
         <v>6.5</v>
       </c>
       <c r="D120" t="n">
-        <v>7.400940390708656</v>
+        <v>7.072094588944909</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
       </c>
       <c r="F120" t="n">
-        <v>3.818592918352858</v>
+        <v>3.863596651708171</v>
       </c>
       <c r="G120" t="n">
         <v>6.5</v>
       </c>
       <c r="H120" t="n">
-        <v>6.924035229344635</v>
+        <v>6.226795788470258</v>
       </c>
       <c r="I120" t="n">
         <v>8.25</v>
       </c>
       <c r="J120" t="n">
-        <v>8.83629603919837</v>
+        <v>8.100940805232895</v>
       </c>
       <c r="K120" t="n">
         <v>2.8</v>
       </c>
       <c r="L120" t="n">
-        <v>3.13055678371968</v>
+        <v>3.696215743473746</v>
       </c>
     </row>
     <row r="121">
@@ -5022,37 +5022,37 @@
         <v>7.8</v>
       </c>
       <c r="B121" t="n">
-        <v>6.51497310129732</v>
+        <v>6.678601585660683</v>
       </c>
       <c r="C121" t="n">
         <v>8</v>
       </c>
       <c r="D121" t="n">
-        <v>8.335446135117687</v>
+        <v>8.161649522129967</v>
       </c>
       <c r="E121" t="n">
         <v>8.5</v>
       </c>
       <c r="F121" t="n">
-        <v>6.425637357238923</v>
+        <v>6.115697466689271</v>
       </c>
       <c r="G121" t="n">
         <v>8.25</v>
       </c>
       <c r="H121" t="n">
-        <v>8.345549890839957</v>
+        <v>7.885010263334806</v>
       </c>
       <c r="I121" t="n">
         <v>8.25</v>
       </c>
       <c r="J121" t="n">
-        <v>9.437056051524825</v>
+        <v>8.923186801276788</v>
       </c>
       <c r="K121" t="n">
         <v>7</v>
       </c>
       <c r="L121" t="n">
-        <v>4.629937481501745</v>
+        <v>4.993543522433601</v>
       </c>
     </row>
   </sheetData>
